--- a/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.290183167458252</v>
+        <v>1.290183167458451</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01515110775224926</v>
+        <v>0.01515110775256545</v>
       </c>
       <c r="E2">
         <v>0.01784653322311769</v>
@@ -427,10 +427,10 @@
         <v>2.200372629775586</v>
       </c>
       <c r="G2">
-        <v>1.745444158518211</v>
+        <v>1.745444158518197</v>
       </c>
       <c r="H2">
-        <v>0.09950582821762932</v>
+        <v>0.09950582821762577</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>3.615154431447849</v>
       </c>
       <c r="K2">
-        <v>2.012584729486036</v>
+        <v>2.01258472948598</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.117875066501227</v>
+        <v>1.117875066501256</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01269362319191814</v>
+        <v>0.01269362319172274</v>
       </c>
       <c r="E3">
-        <v>0.01817979517508572</v>
+        <v>0.01817979517507595</v>
       </c>
       <c r="F3">
-        <v>1.889120779958247</v>
+        <v>1.889120779958233</v>
       </c>
       <c r="G3">
-        <v>1.497742768793586</v>
+        <v>1.4977427687936</v>
       </c>
       <c r="H3">
-        <v>0.1226520088780845</v>
+        <v>0.1226520088780827</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.123953256191527</v>
+        <v>3.123953256191513</v>
       </c>
       <c r="K3">
-        <v>1.730015298516534</v>
+        <v>1.730015298516463</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.012886314104605</v>
+        <v>1.012886314104634</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01144205034839629</v>
+        <v>0.01144205034838208</v>
       </c>
       <c r="E4">
-        <v>0.01841903284642576</v>
+        <v>0.01841903284641866</v>
       </c>
       <c r="F4">
-        <v>1.706723285099798</v>
+        <v>1.706723285099784</v>
       </c>
       <c r="G4">
-        <v>1.353007836825682</v>
+        <v>1.353007836825697</v>
       </c>
       <c r="H4">
-        <v>0.1383407848828853</v>
+        <v>0.1383407848828861</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.826275599721967</v>
+        <v>2.826275599721981</v>
       </c>
       <c r="K4">
-        <v>1.559813831453923</v>
+        <v>1.559813831453894</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9702637253980697</v>
+        <v>0.9702637253981834</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0109879590200066</v>
+        <v>0.01098795902009542</v>
       </c>
       <c r="E5">
-        <v>0.01852539461919278</v>
+        <v>0.01852539461921587</v>
       </c>
       <c r="F5">
-        <v>1.634282659620453</v>
+        <v>1.634282659620425</v>
       </c>
       <c r="G5">
-        <v>1.295621661300558</v>
+        <v>1.295621661300544</v>
       </c>
       <c r="H5">
-        <v>0.1450790047287089</v>
+        <v>0.1450790047287063</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.705762703058767</v>
+        <v>2.705762703058724</v>
       </c>
       <c r="K5">
-        <v>1.491138246215002</v>
+        <v>1.491138246215016</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,28 +570,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01091570047043788</v>
+        <v>0.01091570047032775</v>
       </c>
       <c r="E6">
-        <v>0.01854359649023785</v>
+        <v>0.01854359649022719</v>
       </c>
       <c r="F6">
         <v>1.622359781517588</v>
       </c>
       <c r="G6">
-        <v>1.286182146516865</v>
+        <v>1.286182146516836</v>
       </c>
       <c r="H6">
-        <v>0.1462179909755461</v>
+        <v>0.1462179909755488</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.685794326521361</v>
+        <v>2.68579432652129</v>
       </c>
       <c r="K6">
-        <v>1.479772014434914</v>
+        <v>1.479772014434857</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.012310890934287</v>
+        <v>1.012310890934373</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01143571061483684</v>
+        <v>0.01143571061495052</v>
       </c>
       <c r="E7">
-        <v>0.01842043114348257</v>
+        <v>0.01842043114347014</v>
       </c>
       <c r="F7">
         <v>1.705739056306854</v>
       </c>
       <c r="G7">
-        <v>1.352227765870239</v>
+        <v>1.352227765870225</v>
       </c>
       <c r="H7">
         <v>0.1384302952996661</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.824647347481346</v>
+        <v>2.824647347481317</v>
       </c>
       <c r="K7">
-        <v>1.5588850641589</v>
+        <v>1.558885064158915</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.230576418708182</v>
+        <v>1.230576418707926</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01424470205967054</v>
+        <v>0.01424470205988015</v>
       </c>
       <c r="E8">
-        <v>0.0179543587192299</v>
+        <v>0.01795435871924411</v>
       </c>
       <c r="F8">
-        <v>2.091050515093315</v>
+        <v>2.091050515093329</v>
       </c>
       <c r="G8">
-        <v>1.658346786926359</v>
+        <v>1.658346786926344</v>
       </c>
       <c r="H8">
-        <v>0.107163264110719</v>
+        <v>0.1071632641107216</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3.444850338441682</v>
+        <v>3.444850338441739</v>
       </c>
       <c r="K8">
-        <v>1.914376597592494</v>
+        <v>1.914376597592536</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.667216151840165</v>
+        <v>1.667216151840336</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02226285010558016</v>
+        <v>0.02226285010571161</v>
       </c>
       <c r="E9">
-        <v>0.01730758360782936</v>
+        <v>0.01730758360776452</v>
       </c>
       <c r="F9">
-        <v>2.931711395495995</v>
+        <v>2.931711395495967</v>
       </c>
       <c r="G9">
-        <v>2.33042006862722</v>
+        <v>2.330420068627205</v>
       </c>
       <c r="H9">
-        <v>0.0589283107051779</v>
+        <v>0.05892831070518323</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.702390659795043</v>
+        <v>4.702390659794986</v>
       </c>
       <c r="K9">
-        <v>2.645370997772588</v>
+        <v>2.645370997772531</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.996885041463258</v>
+        <v>1.996885041463173</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03048115537799845</v>
+        <v>0.03048115537824003</v>
       </c>
       <c r="E10">
-        <v>0.01698538597493293</v>
+        <v>0.01698538597493382</v>
       </c>
       <c r="F10">
         <v>3.627889113859396</v>
       </c>
       <c r="G10">
-        <v>2.890435974512855</v>
+        <v>2.890435974512869</v>
       </c>
       <c r="H10">
-        <v>0.03368235626297</v>
+        <v>0.03368235626296912</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>5.668631357887364</v>
       </c>
       <c r="K10">
-        <v>3.21601262832111</v>
+        <v>3.216012628321096</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.149781194096022</v>
+        <v>2.149781194096079</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03495932039544414</v>
+        <v>0.03495932039535177</v>
       </c>
       <c r="E11">
-        <v>0.01687015438054029</v>
+        <v>0.0168701543805394</v>
       </c>
       <c r="F11">
-        <v>3.969293492937339</v>
+        <v>3.969293492937311</v>
       </c>
       <c r="G11">
-        <v>3.166032901747798</v>
+        <v>3.166032901747769</v>
       </c>
       <c r="H11">
         <v>0.02502560959602107</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.122285514649064</v>
+        <v>6.122285514649121</v>
       </c>
       <c r="K11">
         <v>3.486596435931688</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.208201844588416</v>
+        <v>2.208201844588473</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03678697196040304</v>
+        <v>0.03678697196017566</v>
       </c>
       <c r="E12">
-        <v>0.01683091456948116</v>
+        <v>0.01683091456949892</v>
       </c>
       <c r="F12">
         <v>4.102942634330702</v>
@@ -810,7 +810,7 @@
         <v>3.274080065556518</v>
       </c>
       <c r="H12">
-        <v>0.02221818522384567</v>
+        <v>0.02221818522384833</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.195594863081396</v>
+        <v>2.195594863081283</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0363870153466479</v>
+        <v>0.03638701534674027</v>
       </c>
       <c r="E13">
-        <v>0.01683917112494804</v>
+        <v>0.01683917112494182</v>
       </c>
       <c r="F13">
         <v>4.073949728920383</v>
       </c>
       <c r="G13">
-        <v>3.250633652709752</v>
+        <v>3.250633652709737</v>
       </c>
       <c r="H13">
-        <v>0.0228007194208022</v>
+        <v>0.0228007194207942</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>6.258951550330494</v>
       </c>
       <c r="K13">
-        <v>3.568445673220509</v>
+        <v>3.568445673220481</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0.0351068710218243</v>
       </c>
       <c r="E14">
-        <v>0.01686683840630732</v>
+        <v>0.01686683840630465</v>
       </c>
       <c r="F14">
         <v>3.98019605180292</v>
@@ -886,16 +886,16 @@
         <v>3.174843663441578</v>
       </c>
       <c r="H14">
-        <v>0.02478479437553371</v>
+        <v>0.02478479437553105</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.136573748342954</v>
+        <v>6.136573748342926</v>
       </c>
       <c r="K14">
-        <v>3.495146400815429</v>
+        <v>3.495146400815457</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.12952271727579</v>
+        <v>2.129522717276075</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0.03434078190879575</v>
       </c>
       <c r="E15">
-        <v>0.01688435565404411</v>
+        <v>0.01688435565402013</v>
       </c>
       <c r="F15">
-        <v>3.923365166414101</v>
+        <v>3.923365166414072</v>
       </c>
       <c r="G15">
         <v>3.128923007637269</v>
       </c>
       <c r="H15">
-        <v>0.02606351696838782</v>
+        <v>0.0260635169683896</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>6.061962694273092</v>
       </c>
       <c r="K15">
-        <v>3.450518400082473</v>
+        <v>3.450518400082444</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.986960054270753</v>
+        <v>1.986960054271009</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.030205424808738</v>
+        <v>0.03020542480872379</v>
       </c>
       <c r="E16">
-        <v>0.01699353651134761</v>
+        <v>0.01699353651134849</v>
       </c>
       <c r="F16">
         <v>3.606140281138948</v>
@@ -962,16 +962,16 @@
         <v>2.87289983317217</v>
       </c>
       <c r="H16">
-        <v>0.03431019185315076</v>
+        <v>0.03431019185313655</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.639309552452517</v>
+        <v>5.639309552452545</v>
       </c>
       <c r="K16">
-        <v>3.198582120675141</v>
+        <v>3.198582120675169</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.900318601171563</v>
+        <v>1.900318601171534</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0278742836855983</v>
+        <v>0.02787428368561606</v>
       </c>
       <c r="E17">
-        <v>0.01706844677021291</v>
+        <v>0.01706844677020136</v>
       </c>
       <c r="F17">
         <v>3.418386758088047</v>
       </c>
       <c r="G17">
-        <v>2.721619645369657</v>
+        <v>2.721619645369643</v>
       </c>
       <c r="H17">
-        <v>0.04013531453169872</v>
+        <v>0.04013531453170316</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.383972747334951</v>
+        <v>5.383972747334894</v>
       </c>
       <c r="K17">
         <v>3.047096288674879</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02660125688055714</v>
+        <v>0.02660125688032622</v>
       </c>
       <c r="E18">
-        <v>0.01711448718709452</v>
+        <v>0.01711448718709097</v>
       </c>
       <c r="F18">
         <v>3.312663889488931</v>
@@ -1038,16 +1038,16 @@
         <v>2.636520244639584</v>
       </c>
       <c r="H18">
-        <v>0.04374745232142185</v>
+        <v>0.04374745232143162</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.238400813085747</v>
+        <v>5.238400813085804</v>
       </c>
       <c r="K18">
-        <v>2.960972912335777</v>
+        <v>2.96097291233572</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.834014672008607</v>
+        <v>1.834014672008351</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02618119131683372</v>
+        <v>0.026181191316617</v>
       </c>
       <c r="E19">
-        <v>0.01713058726234529</v>
+        <v>0.01713058726236394</v>
       </c>
       <c r="F19">
-        <v>3.277235493297127</v>
+        <v>3.277235493297098</v>
       </c>
       <c r="G19">
         <v>2.608017040685127</v>
       </c>
       <c r="H19">
-        <v>0.04501364936054753</v>
+        <v>0.0450136493605493</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.189320398106901</v>
+        <v>5.189320398106929</v>
       </c>
       <c r="K19">
-        <v>2.931975438221556</v>
+        <v>2.931975438221585</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909513264486179</v>
+        <v>1.909513264486236</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02811525646542634</v>
+        <v>0.028115256465437</v>
       </c>
       <c r="E20">
-        <v>0.01706016769379559</v>
+        <v>0.01706016769378316</v>
       </c>
       <c r="F20">
         <v>3.438133381926463</v>
@@ -1114,16 +1114,16 @@
         <v>2.737521192999523</v>
       </c>
       <c r="H20">
-        <v>0.03948771261437845</v>
+        <v>0.03948771261439177</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.411016773962587</v>
+        <v>5.411016773962558</v>
       </c>
       <c r="K20">
-        <v>3.06311540081461</v>
+        <v>3.063115400814581</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03547906701768255</v>
+        <v>0.03547906701781756</v>
       </c>
       <c r="E21">
         <v>0.01685859311996385</v>
@@ -1149,7 +1149,7 @@
         <v>4.007607862610485</v>
       </c>
       <c r="G21">
-        <v>3.196998760545299</v>
+        <v>3.196998760545284</v>
       </c>
       <c r="H21">
         <v>0.02418867375343314</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.172445275085295</v>
+        <v>6.172445275085266</v>
       </c>
       <c r="K21">
-        <v>3.516619097219007</v>
+        <v>3.516619097219035</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04107714664558415</v>
+        <v>0.04107714664592521</v>
       </c>
       <c r="E22">
         <v>0.01675247841920413</v>
       </c>
       <c r="F22">
-        <v>4.405767541328601</v>
+        <v>4.405767541328572</v>
       </c>
       <c r="G22">
         <v>3.519212748812919</v>
       </c>
       <c r="H22">
-        <v>0.01697327830213879</v>
+        <v>0.01697327830213968</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.685253841775591</v>
+        <v>6.685253841775534</v>
       </c>
       <c r="K22">
-        <v>3.824755362162023</v>
+        <v>3.824755362162051</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.246082578558571</v>
+        <v>2.246082578558628</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03800730946906583</v>
+        <v>0.03800730946907294</v>
       </c>
       <c r="E23">
-        <v>0.01680678686303771</v>
+        <v>0.0168067868630386</v>
       </c>
       <c r="F23">
-        <v>4.190565427754422</v>
+        <v>4.190565427754393</v>
       </c>
       <c r="G23">
-        <v>3.344964837339631</v>
+        <v>3.344964837339646</v>
       </c>
       <c r="H23">
-        <v>0.02054484654330757</v>
+        <v>0.02054484654330846</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.409966876844663</v>
+        <v>6.40996687684472</v>
       </c>
       <c r="K23">
-        <v>3.659069060433552</v>
+        <v>3.659069060433495</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.905355598296723</v>
+        <v>1.90535559829695</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02800610526898595</v>
+        <v>0.02800610526910674</v>
       </c>
       <c r="E24">
-        <v>0.0170639013930094</v>
+        <v>0.01706390139300851</v>
       </c>
       <c r="F24">
-        <v>3.429199080077041</v>
+        <v>3.429199080077069</v>
       </c>
       <c r="G24">
-        <v>2.730326317239815</v>
+        <v>2.730326317239829</v>
       </c>
       <c r="H24">
-        <v>0.03977967830446527</v>
+        <v>0.03977967830446438</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.398786392658309</v>
+        <v>5.398786392658337</v>
       </c>
       <c r="K24">
-        <v>3.055870173909767</v>
+        <v>3.055870173909724</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.547830681533725</v>
+        <v>1.547830681533981</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01975199830465613</v>
+        <v>0.01975199830476626</v>
       </c>
       <c r="E25">
-        <v>0.01745498936939782</v>
+        <v>0.01745498936942891</v>
       </c>
       <c r="F25">
         <v>2.692712639947928</v>
       </c>
       <c r="G25">
-        <v>2.138841509846628</v>
+        <v>2.1388415098466</v>
       </c>
       <c r="H25">
         <v>0.07036883131682714</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.356181099198295</v>
+        <v>4.356181099198324</v>
       </c>
       <c r="K25">
-        <v>2.442792948340227</v>
+        <v>2.442792948340269</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.290183167458451</v>
+        <v>1.290183167458252</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01515110775256545</v>
+        <v>0.01515110775224926</v>
       </c>
       <c r="E2">
         <v>0.01784653322311769</v>
@@ -427,10 +427,10 @@
         <v>2.200372629775586</v>
       </c>
       <c r="G2">
-        <v>1.745444158518197</v>
+        <v>1.745444158518211</v>
       </c>
       <c r="H2">
-        <v>0.09950582821762577</v>
+        <v>0.09950582821762932</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>3.615154431447849</v>
       </c>
       <c r="K2">
-        <v>2.01258472948598</v>
+        <v>2.012584729486036</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,34 +450,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.117875066501256</v>
+        <v>1.117875066501227</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01269362319172274</v>
+        <v>0.01269362319191814</v>
       </c>
       <c r="E3">
-        <v>0.01817979517507595</v>
+        <v>0.01817979517508572</v>
       </c>
       <c r="F3">
-        <v>1.889120779958233</v>
+        <v>1.889120779958247</v>
       </c>
       <c r="G3">
-        <v>1.4977427687936</v>
+        <v>1.497742768793586</v>
       </c>
       <c r="H3">
-        <v>0.1226520088780827</v>
+        <v>0.1226520088780845</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3.123953256191513</v>
+        <v>3.123953256191527</v>
       </c>
       <c r="K3">
-        <v>1.730015298516463</v>
+        <v>1.730015298516534</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.012886314104634</v>
+        <v>1.012886314104605</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01144205034838208</v>
+        <v>0.01144205034839629</v>
       </c>
       <c r="E4">
-        <v>0.01841903284641866</v>
+        <v>0.01841903284642576</v>
       </c>
       <c r="F4">
-        <v>1.706723285099784</v>
+        <v>1.706723285099798</v>
       </c>
       <c r="G4">
-        <v>1.353007836825697</v>
+        <v>1.353007836825682</v>
       </c>
       <c r="H4">
-        <v>0.1383407848828861</v>
+        <v>0.1383407848828853</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.826275599721981</v>
+        <v>2.826275599721967</v>
       </c>
       <c r="K4">
-        <v>1.559813831453894</v>
+        <v>1.559813831453923</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9702637253981834</v>
+        <v>0.9702637253980697</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01098795902009542</v>
+        <v>0.0109879590200066</v>
       </c>
       <c r="E5">
-        <v>0.01852539461921587</v>
+        <v>0.01852539461919278</v>
       </c>
       <c r="F5">
-        <v>1.634282659620425</v>
+        <v>1.634282659620453</v>
       </c>
       <c r="G5">
-        <v>1.295621661300544</v>
+        <v>1.295621661300558</v>
       </c>
       <c r="H5">
-        <v>0.1450790047287063</v>
+        <v>0.1450790047287089</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.705762703058724</v>
+        <v>2.705762703058767</v>
       </c>
       <c r="K5">
-        <v>1.491138246215016</v>
+        <v>1.491138246215002</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,28 +570,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01091570047032775</v>
+        <v>0.01091570047043788</v>
       </c>
       <c r="E6">
-        <v>0.01854359649022719</v>
+        <v>0.01854359649023785</v>
       </c>
       <c r="F6">
         <v>1.622359781517588</v>
       </c>
       <c r="G6">
-        <v>1.286182146516836</v>
+        <v>1.286182146516865</v>
       </c>
       <c r="H6">
-        <v>0.1462179909755488</v>
+        <v>0.1462179909755461</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.68579432652129</v>
+        <v>2.685794326521361</v>
       </c>
       <c r="K6">
-        <v>1.479772014434857</v>
+        <v>1.479772014434914</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.012310890934373</v>
+        <v>1.012310890934287</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01143571061495052</v>
+        <v>0.01143571061483684</v>
       </c>
       <c r="E7">
-        <v>0.01842043114347014</v>
+        <v>0.01842043114348257</v>
       </c>
       <c r="F7">
         <v>1.705739056306854</v>
       </c>
       <c r="G7">
-        <v>1.352227765870225</v>
+        <v>1.352227765870239</v>
       </c>
       <c r="H7">
         <v>0.1384302952996661</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.824647347481317</v>
+        <v>2.824647347481346</v>
       </c>
       <c r="K7">
-        <v>1.558885064158915</v>
+        <v>1.5588850641589</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.230576418707926</v>
+        <v>1.230576418708182</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01424470205988015</v>
+        <v>0.01424470205967054</v>
       </c>
       <c r="E8">
-        <v>0.01795435871924411</v>
+        <v>0.0179543587192299</v>
       </c>
       <c r="F8">
-        <v>2.091050515093329</v>
+        <v>2.091050515093315</v>
       </c>
       <c r="G8">
-        <v>1.658346786926344</v>
+        <v>1.658346786926359</v>
       </c>
       <c r="H8">
-        <v>0.1071632641107216</v>
+        <v>0.107163264110719</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>3.444850338441739</v>
+        <v>3.444850338441682</v>
       </c>
       <c r="K8">
-        <v>1.914376597592536</v>
+        <v>1.914376597592494</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,34 +678,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.667216151840336</v>
+        <v>1.667216151840165</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02226285010571161</v>
+        <v>0.02226285010558016</v>
       </c>
       <c r="E9">
-        <v>0.01730758360776452</v>
+        <v>0.01730758360782936</v>
       </c>
       <c r="F9">
-        <v>2.931711395495967</v>
+        <v>2.931711395495995</v>
       </c>
       <c r="G9">
-        <v>2.330420068627205</v>
+        <v>2.33042006862722</v>
       </c>
       <c r="H9">
-        <v>0.05892831070518323</v>
+        <v>0.0589283107051779</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.702390659794986</v>
+        <v>4.702390659795043</v>
       </c>
       <c r="K9">
-        <v>2.645370997772531</v>
+        <v>2.645370997772588</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.996885041463173</v>
+        <v>1.996885041463258</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03048115537824003</v>
+        <v>0.03048115537799845</v>
       </c>
       <c r="E10">
-        <v>0.01698538597493382</v>
+        <v>0.01698538597493293</v>
       </c>
       <c r="F10">
         <v>3.627889113859396</v>
       </c>
       <c r="G10">
-        <v>2.890435974512869</v>
+        <v>2.890435974512855</v>
       </c>
       <c r="H10">
-        <v>0.03368235626296912</v>
+        <v>0.03368235626297</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>5.668631357887364</v>
       </c>
       <c r="K10">
-        <v>3.216012628321096</v>
+        <v>3.21601262832111</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.149781194096079</v>
+        <v>2.149781194096022</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03495932039535177</v>
+        <v>0.03495932039544414</v>
       </c>
       <c r="E11">
-        <v>0.0168701543805394</v>
+        <v>0.01687015438054029</v>
       </c>
       <c r="F11">
-        <v>3.969293492937311</v>
+        <v>3.969293492937339</v>
       </c>
       <c r="G11">
-        <v>3.166032901747769</v>
+        <v>3.166032901747798</v>
       </c>
       <c r="H11">
         <v>0.02502560959602107</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.122285514649121</v>
+        <v>6.122285514649064</v>
       </c>
       <c r="K11">
         <v>3.486596435931688</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.208201844588473</v>
+        <v>2.208201844588416</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03678697196017566</v>
+        <v>0.03678697196040304</v>
       </c>
       <c r="E12">
-        <v>0.01683091456949892</v>
+        <v>0.01683091456948116</v>
       </c>
       <c r="F12">
         <v>4.102942634330702</v>
@@ -810,7 +810,7 @@
         <v>3.274080065556518</v>
       </c>
       <c r="H12">
-        <v>0.02221818522384833</v>
+        <v>0.02221818522384567</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.195594863081283</v>
+        <v>2.195594863081396</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03638701534674027</v>
+        <v>0.0363870153466479</v>
       </c>
       <c r="E13">
-        <v>0.01683917112494182</v>
+        <v>0.01683917112494804</v>
       </c>
       <c r="F13">
         <v>4.073949728920383</v>
       </c>
       <c r="G13">
-        <v>3.250633652709737</v>
+        <v>3.250633652709752</v>
       </c>
       <c r="H13">
-        <v>0.0228007194207942</v>
+        <v>0.0228007194208022</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>6.258951550330494</v>
       </c>
       <c r="K13">
-        <v>3.568445673220481</v>
+        <v>3.568445673220509</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0.0351068710218243</v>
       </c>
       <c r="E14">
-        <v>0.01686683840630465</v>
+        <v>0.01686683840630732</v>
       </c>
       <c r="F14">
         <v>3.98019605180292</v>
@@ -886,16 +886,16 @@
         <v>3.174843663441578</v>
       </c>
       <c r="H14">
-        <v>0.02478479437553105</v>
+        <v>0.02478479437553371</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.136573748342926</v>
+        <v>6.136573748342954</v>
       </c>
       <c r="K14">
-        <v>3.495146400815457</v>
+        <v>3.495146400815429</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.129522717276075</v>
+        <v>2.12952271727579</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0.03434078190879575</v>
       </c>
       <c r="E15">
-        <v>0.01688435565402013</v>
+        <v>0.01688435565404411</v>
       </c>
       <c r="F15">
-        <v>3.923365166414072</v>
+        <v>3.923365166414101</v>
       </c>
       <c r="G15">
         <v>3.128923007637269</v>
       </c>
       <c r="H15">
-        <v>0.0260635169683896</v>
+        <v>0.02606351696838782</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>6.061962694273092</v>
       </c>
       <c r="K15">
-        <v>3.450518400082444</v>
+        <v>3.450518400082473</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.986960054271009</v>
+        <v>1.986960054270753</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03020542480872379</v>
+        <v>0.030205424808738</v>
       </c>
       <c r="E16">
-        <v>0.01699353651134849</v>
+        <v>0.01699353651134761</v>
       </c>
       <c r="F16">
         <v>3.606140281138948</v>
@@ -962,16 +962,16 @@
         <v>2.87289983317217</v>
       </c>
       <c r="H16">
-        <v>0.03431019185313655</v>
+        <v>0.03431019185315076</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.639309552452545</v>
+        <v>5.639309552452517</v>
       </c>
       <c r="K16">
-        <v>3.198582120675169</v>
+        <v>3.198582120675141</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.900318601171534</v>
+        <v>1.900318601171563</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02787428368561606</v>
+        <v>0.0278742836855983</v>
       </c>
       <c r="E17">
-        <v>0.01706844677020136</v>
+        <v>0.01706844677021291</v>
       </c>
       <c r="F17">
         <v>3.418386758088047</v>
       </c>
       <c r="G17">
-        <v>2.721619645369643</v>
+        <v>2.721619645369657</v>
       </c>
       <c r="H17">
-        <v>0.04013531453170316</v>
+        <v>0.04013531453169872</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.383972747334894</v>
+        <v>5.383972747334951</v>
       </c>
       <c r="K17">
         <v>3.047096288674879</v>
@@ -1026,10 +1026,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02660125688032622</v>
+        <v>0.02660125688055714</v>
       </c>
       <c r="E18">
-        <v>0.01711448718709097</v>
+        <v>0.01711448718709452</v>
       </c>
       <c r="F18">
         <v>3.312663889488931</v>
@@ -1038,16 +1038,16 @@
         <v>2.636520244639584</v>
       </c>
       <c r="H18">
-        <v>0.04374745232143162</v>
+        <v>0.04374745232142185</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.238400813085804</v>
+        <v>5.238400813085747</v>
       </c>
       <c r="K18">
-        <v>2.96097291233572</v>
+        <v>2.960972912335777</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,34 +1058,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.834014672008351</v>
+        <v>1.834014672008607</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.026181191316617</v>
+        <v>0.02618119131683372</v>
       </c>
       <c r="E19">
-        <v>0.01713058726236394</v>
+        <v>0.01713058726234529</v>
       </c>
       <c r="F19">
-        <v>3.277235493297098</v>
+        <v>3.277235493297127</v>
       </c>
       <c r="G19">
         <v>2.608017040685127</v>
       </c>
       <c r="H19">
-        <v>0.0450136493605493</v>
+        <v>0.04501364936054753</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.189320398106929</v>
+        <v>5.189320398106901</v>
       </c>
       <c r="K19">
-        <v>2.931975438221585</v>
+        <v>2.931975438221556</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909513264486236</v>
+        <v>1.909513264486179</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.028115256465437</v>
+        <v>0.02811525646542634</v>
       </c>
       <c r="E20">
-        <v>0.01706016769378316</v>
+        <v>0.01706016769379559</v>
       </c>
       <c r="F20">
         <v>3.438133381926463</v>
@@ -1114,16 +1114,16 @@
         <v>2.737521192999523</v>
       </c>
       <c r="H20">
-        <v>0.03948771261439177</v>
+        <v>0.03948771261437845</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.411016773962558</v>
+        <v>5.411016773962587</v>
       </c>
       <c r="K20">
-        <v>3.063115400814581</v>
+        <v>3.06311540081461</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03547906701781756</v>
+        <v>0.03547906701768255</v>
       </c>
       <c r="E21">
         <v>0.01685859311996385</v>
@@ -1149,7 +1149,7 @@
         <v>4.007607862610485</v>
       </c>
       <c r="G21">
-        <v>3.196998760545284</v>
+        <v>3.196998760545299</v>
       </c>
       <c r="H21">
         <v>0.02418867375343314</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.172445275085266</v>
+        <v>6.172445275085295</v>
       </c>
       <c r="K21">
-        <v>3.516619097219035</v>
+        <v>3.516619097219007</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04107714664592521</v>
+        <v>0.04107714664558415</v>
       </c>
       <c r="E22">
         <v>0.01675247841920413</v>
       </c>
       <c r="F22">
-        <v>4.405767541328572</v>
+        <v>4.405767541328601</v>
       </c>
       <c r="G22">
         <v>3.519212748812919</v>
       </c>
       <c r="H22">
-        <v>0.01697327830213968</v>
+        <v>0.01697327830213879</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.685253841775534</v>
+        <v>6.685253841775591</v>
       </c>
       <c r="K22">
-        <v>3.824755362162051</v>
+        <v>3.824755362162023</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.246082578558628</v>
+        <v>2.246082578558571</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03800730946907294</v>
+        <v>0.03800730946906583</v>
       </c>
       <c r="E23">
-        <v>0.0168067868630386</v>
+        <v>0.01680678686303771</v>
       </c>
       <c r="F23">
-        <v>4.190565427754393</v>
+        <v>4.190565427754422</v>
       </c>
       <c r="G23">
-        <v>3.344964837339646</v>
+        <v>3.344964837339631</v>
       </c>
       <c r="H23">
-        <v>0.02054484654330846</v>
+        <v>0.02054484654330757</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.40996687684472</v>
+        <v>6.409966876844663</v>
       </c>
       <c r="K23">
-        <v>3.659069060433495</v>
+        <v>3.659069060433552</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.90535559829695</v>
+        <v>1.905355598296723</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02800610526910674</v>
+        <v>0.02800610526898595</v>
       </c>
       <c r="E24">
-        <v>0.01706390139300851</v>
+        <v>0.0170639013930094</v>
       </c>
       <c r="F24">
-        <v>3.429199080077069</v>
+        <v>3.429199080077041</v>
       </c>
       <c r="G24">
-        <v>2.730326317239829</v>
+        <v>2.730326317239815</v>
       </c>
       <c r="H24">
-        <v>0.03977967830446438</v>
+        <v>0.03977967830446527</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.398786392658337</v>
+        <v>5.398786392658309</v>
       </c>
       <c r="K24">
-        <v>3.055870173909724</v>
+        <v>3.055870173909767</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.547830681533981</v>
+        <v>1.547830681533725</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01975199830476626</v>
+        <v>0.01975199830465613</v>
       </c>
       <c r="E25">
-        <v>0.01745498936942891</v>
+        <v>0.01745498936939782</v>
       </c>
       <c r="F25">
         <v>2.692712639947928</v>
       </c>
       <c r="G25">
-        <v>2.1388415098466</v>
+        <v>2.138841509846628</v>
       </c>
       <c r="H25">
         <v>0.07036883131682714</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.356181099198324</v>
+        <v>4.356181099198295</v>
       </c>
       <c r="K25">
-        <v>2.442792948340269</v>
+        <v>2.442792948340227</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.290183167458252</v>
+        <v>1.290483333720061</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01515110775224926</v>
+        <v>0.01503404700576638</v>
       </c>
       <c r="E2">
-        <v>0.01784653322311769</v>
+        <v>0.01777708837584768</v>
       </c>
       <c r="F2">
-        <v>2.200372629775586</v>
+        <v>2.196698721378993</v>
       </c>
       <c r="G2">
-        <v>1.745444158518211</v>
+        <v>0.5865613365858451</v>
       </c>
       <c r="H2">
-        <v>0.09950582821762932</v>
+        <v>1.158658616333113</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.09962276107885693</v>
       </c>
       <c r="J2">
-        <v>3.615154431447849</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.012584729486036</v>
+        <v>3.613161953708385</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>2.011592321424374</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.117875066501227</v>
+        <v>1.118146452011416</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01269362319191814</v>
+        <v>0.01259565333580426</v>
       </c>
       <c r="E3">
-        <v>0.01817979517508572</v>
+        <v>0.01812008165826029</v>
       </c>
       <c r="F3">
-        <v>1.889120779958247</v>
+        <v>1.886006505162044</v>
       </c>
       <c r="G3">
-        <v>1.497742768793586</v>
+        <v>0.5000536856086626</v>
       </c>
       <c r="H3">
-        <v>0.1226520088780845</v>
+        <v>0.9982068194088214</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1227473650208957</v>
       </c>
       <c r="J3">
-        <v>3.123953256191527</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.730015298516534</v>
+        <v>3.12229400321138</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.729195120874664</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.012886314104605</v>
+        <v>1.013138657142207</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01144205034839629</v>
+        <v>0.01135477412952923</v>
       </c>
       <c r="E4">
-        <v>0.01841903284642576</v>
+        <v>0.01836557579200715</v>
       </c>
       <c r="F4">
-        <v>1.706723285099798</v>
+        <v>1.703932238525169</v>
       </c>
       <c r="G4">
-        <v>1.353007836825682</v>
+        <v>0.4493474757527594</v>
       </c>
       <c r="H4">
-        <v>0.1383407848828853</v>
+        <v>0.9046104311697718</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1384219316527462</v>
       </c>
       <c r="J4">
-        <v>2.826275599721967</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.559813831453923</v>
+        <v>2.824809137827174</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.559091973101317</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9702637253980697</v>
+        <v>0.9705080175702108</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0109879590200066</v>
+        <v>0.0109048211456475</v>
       </c>
       <c r="E5">
-        <v>0.01852539461919278</v>
+        <v>0.01847455750773097</v>
       </c>
       <c r="F5">
-        <v>1.634282659620453</v>
+        <v>1.631619069158603</v>
       </c>
       <c r="G5">
-        <v>1.295621661300558</v>
+        <v>0.4292040868788547</v>
       </c>
       <c r="H5">
-        <v>0.1450790047287089</v>
+        <v>0.867538960224465</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1451541511977785</v>
       </c>
       <c r="J5">
-        <v>2.705762703058767</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.491138246215002</v>
+        <v>2.704372380638176</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.490454925298863</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9631948618419131</v>
+        <v>0.9634378010078422</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01091570047043788</v>
+        <v>0.01083323754905408</v>
       </c>
       <c r="E6">
-        <v>0.01854359649023785</v>
+        <v>0.018493198651929</v>
       </c>
       <c r="F6">
-        <v>1.622359781517588</v>
+        <v>1.619717120382006</v>
       </c>
       <c r="G6">
-        <v>1.286182146516865</v>
+        <v>0.4258883591096492</v>
       </c>
       <c r="H6">
-        <v>0.1462179909755461</v>
+        <v>0.8614433521129428</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1462921292443742</v>
       </c>
       <c r="J6">
-        <v>2.685794326521361</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.479772014434914</v>
+        <v>2.684416514920116</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.479095009223897</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.012310890934287</v>
+        <v>1.012563126508383</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01143571061483684</v>
+        <v>0.01134849104790092</v>
       </c>
       <c r="E7">
-        <v>0.01842043114348257</v>
+        <v>0.01836700913831457</v>
       </c>
       <c r="F7">
-        <v>1.705739056306854</v>
+        <v>1.702949744861641</v>
       </c>
       <c r="G7">
-        <v>1.352227765870239</v>
+        <v>0.4490738168189381</v>
       </c>
       <c r="H7">
-        <v>0.1384302952996661</v>
+        <v>0.9041063480801483</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1385113619593161</v>
       </c>
       <c r="J7">
-        <v>2.824647347481346</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.5588850641589</v>
+        <v>2.823181921587576</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.558163731314963</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.230576418708182</v>
+        <v>1.230866981389624</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01424470205967054</v>
+        <v>0.01413446280878361</v>
       </c>
       <c r="E8">
-        <v>0.0179543587192299</v>
+        <v>0.01788821073134805</v>
       </c>
       <c r="F8">
-        <v>2.091050515093315</v>
+        <v>2.087574366529182</v>
       </c>
       <c r="G8">
-        <v>1.658346786926359</v>
+        <v>0.5561780872751143</v>
       </c>
       <c r="H8">
-        <v>0.107163264110719</v>
+        <v>1.102205770619506</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.107272977971407</v>
       </c>
       <c r="J8">
-        <v>3.444850338441682</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.914376597592494</v>
+        <v>3.442975564796143</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.913445340228961</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.667216151840165</v>
+        <v>1.667567951280063</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02226285010558016</v>
+        <v>0.02209715208715224</v>
       </c>
       <c r="E9">
-        <v>0.01730758360782936</v>
+        <v>0.01721870220442412</v>
       </c>
       <c r="F9">
-        <v>2.931711395495995</v>
+        <v>2.926678426174874</v>
       </c>
       <c r="G9">
-        <v>2.33042006862722</v>
+        <v>0.78986510607821</v>
       </c>
       <c r="H9">
-        <v>0.0589283107051779</v>
+        <v>1.538559250714115</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.05908473321262875</v>
       </c>
       <c r="J9">
-        <v>4.702390659795043</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.645370997772588</v>
+        <v>4.699589115696682</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.643950036302911</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.996885041463258</v>
+        <v>1.997267750076816</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03048115537799845</v>
+        <v>0.03026457630378587</v>
       </c>
       <c r="E10">
-        <v>0.01698538597493293</v>
+        <v>0.0168810765121794</v>
       </c>
       <c r="F10">
-        <v>3.627889113859396</v>
+        <v>3.621497632416236</v>
       </c>
       <c r="G10">
-        <v>2.890435974512855</v>
+        <v>0.9835741361454211</v>
       </c>
       <c r="H10">
-        <v>0.03368235626297</v>
+        <v>1.903132731049439</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.03386384960169941</v>
       </c>
       <c r="J10">
-        <v>5.668631357887364</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>3.21601262832111</v>
+        <v>5.665018723323413</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3.214149609408111</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.149781194096022</v>
+        <v>2.150173088819997</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03495932039544414</v>
+        <v>0.03471619108387358</v>
       </c>
       <c r="E11">
-        <v>0.01687015438054029</v>
+        <v>0.0167590551908674</v>
       </c>
       <c r="F11">
-        <v>3.969293492937339</v>
+        <v>3.9622099173707</v>
       </c>
       <c r="G11">
-        <v>3.166032901747798</v>
+        <v>1.078655949431067</v>
       </c>
       <c r="H11">
-        <v>0.02502560959602107</v>
+        <v>2.082777767960451</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02521533797179831</v>
       </c>
       <c r="J11">
-        <v>6.122285514649064</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3.486596435931688</v>
+        <v>6.118258371625728</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.484503336701835</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.208201844588416</v>
+        <v>2.208596300513875</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03678697196040304</v>
+        <v>0.03653316033933862</v>
       </c>
       <c r="E12">
-        <v>0.01683091456948116</v>
+        <v>0.01671726970030196</v>
       </c>
       <c r="F12">
-        <v>4.102942634330702</v>
+        <v>4.095583126180969</v>
       </c>
       <c r="G12">
-        <v>3.274080065556518</v>
+        <v>1.115894628382009</v>
       </c>
       <c r="H12">
-        <v>0.02221818522384567</v>
+        <v>2.153241680835407</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0224104348376466</v>
       </c>
       <c r="J12">
-        <v>6.296620426743203</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3.591032802349446</v>
+        <v>6.292427762382431</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.588847101893208</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.195594863081396</v>
+        <v>2.195988812424673</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0363870153466479</v>
+        <v>0.03613553496475674</v>
       </c>
       <c r="E13">
-        <v>0.01683917112494804</v>
+        <v>0.01672607354335742</v>
       </c>
       <c r="F13">
-        <v>4.073949728920383</v>
+        <v>4.066650325550199</v>
       </c>
       <c r="G13">
-        <v>3.250633652709752</v>
+        <v>1.107815493779057</v>
       </c>
       <c r="H13">
-        <v>0.0228007194208022</v>
+        <v>2.137949348008249</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02299245538394956</v>
       </c>
       <c r="J13">
-        <v>6.258951550330494</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.568445673220509</v>
+        <v>6.254794953224462</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.566280184936886</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.154576380718254</v>
+        <v>2.15496850603256</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0351068710218243</v>
+        <v>0.03486287640826902</v>
       </c>
       <c r="E14">
-        <v>0.01686683840630732</v>
+        <v>0.01675552932883573</v>
       </c>
       <c r="F14">
-        <v>3.98019605180292</v>
+        <v>3.973090074561696</v>
       </c>
       <c r="G14">
-        <v>3.174843663441578</v>
+        <v>1.081693363236539</v>
       </c>
       <c r="H14">
-        <v>0.02478479437553371</v>
+        <v>2.088523093021593</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02497474312795145</v>
       </c>
       <c r="J14">
-        <v>6.136573748342954</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3.495146400815429</v>
+        <v>6.132533172978725</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.493045801925859</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.12952271727579</v>
+        <v>2.129913598232463</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03434078190879575</v>
+        <v>0.03410128589079164</v>
       </c>
       <c r="E15">
-        <v>0.01688435565404411</v>
+        <v>0.01677414511319775</v>
       </c>
       <c r="F15">
-        <v>3.923365166414101</v>
+        <v>3.916375752767692</v>
       </c>
       <c r="G15">
-        <v>3.128923007637269</v>
+        <v>1.065861193307498</v>
       </c>
       <c r="H15">
-        <v>0.02606351696838782</v>
+        <v>2.058580514212295</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.02625228821246495</v>
       </c>
       <c r="J15">
-        <v>6.061962694273092</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3.450518400082473</v>
+        <v>6.057992001255229</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.448456789026977</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.986960054270753</v>
+        <v>1.987342047475892</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.030205424808738</v>
+        <v>0.02999050139137793</v>
       </c>
       <c r="E16">
-        <v>0.01699353651134761</v>
+        <v>0.01688967482191828</v>
       </c>
       <c r="F16">
-        <v>3.606140281138948</v>
+        <v>3.599792286660573</v>
       </c>
       <c r="G16">
-        <v>2.87289983317217</v>
+        <v>0.9775191088143629</v>
       </c>
       <c r="H16">
-        <v>0.03431019185315076</v>
+        <v>1.891706571257401</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.03449107218484038</v>
       </c>
       <c r="J16">
-        <v>5.639309552452517</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>3.198582120675141</v>
+        <v>5.635722932351399</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>3.196733452006399</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.900318601171563</v>
+        <v>1.9006937596846</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0278742836855983</v>
+        <v>0.02767347612425652</v>
       </c>
       <c r="E17">
-        <v>0.01706844677021291</v>
+        <v>0.01696853426668454</v>
       </c>
       <c r="F17">
-        <v>3.418386758088047</v>
+        <v>3.412411283864742</v>
       </c>
       <c r="G17">
-        <v>2.721619645369657</v>
+        <v>0.9252570827125766</v>
       </c>
       <c r="H17">
-        <v>0.04013531453169872</v>
+        <v>1.793160571104096</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.04031045543417022</v>
       </c>
       <c r="J17">
-        <v>5.383972747334951</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>3.047096288674879</v>
+        <v>5.380608828947828</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>3.045370018253337</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.850753289142176</v>
+        <v>1.851124073911876</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02660125688055714</v>
+        <v>0.02640825823063508</v>
       </c>
       <c r="E18">
-        <v>0.01711448718709452</v>
+        <v>0.01701686828454285</v>
       </c>
       <c r="F18">
-        <v>3.312663889488931</v>
+        <v>3.306895941742368</v>
       </c>
       <c r="G18">
-        <v>2.636520244639584</v>
+        <v>0.8958362077146944</v>
       </c>
       <c r="H18">
-        <v>0.04374745232142185</v>
+        <v>1.737746192608085</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.04391900439204122</v>
       </c>
       <c r="J18">
-        <v>5.238400813085747</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2.960972912335777</v>
+        <v>5.235160849469224</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.959314411286456</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.834014672008607</v>
+        <v>1.834383905427956</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02618119131683372</v>
+        <v>0.0259907869629501</v>
       </c>
       <c r="E19">
-        <v>0.01713058726234529</v>
+        <v>0.01703374890330522</v>
       </c>
       <c r="F19">
-        <v>3.277235493297127</v>
+        <v>3.271536735913344</v>
       </c>
       <c r="G19">
-        <v>2.608017040685127</v>
+        <v>0.8859782626424675</v>
       </c>
       <c r="H19">
-        <v>0.04501364936054753</v>
+        <v>1.719189181485959</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.04518394049287</v>
       </c>
       <c r="J19">
-        <v>5.189320398106901</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.931975438221556</v>
+        <v>5.186121744756264</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.930339464481492</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909513264486179</v>
+        <v>1.909889197727836</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02811525646542634</v>
+        <v>0.02791297922641789</v>
       </c>
       <c r="E20">
-        <v>0.01706016769379559</v>
+        <v>0.01695983254396083</v>
       </c>
       <c r="F20">
-        <v>3.438133381926463</v>
+        <v>3.432118969746597</v>
       </c>
       <c r="G20">
-        <v>2.737521192999523</v>
+        <v>0.9307528249372865</v>
       </c>
       <c r="H20">
-        <v>0.03948771261437845</v>
+        <v>1.803516904233945</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.03966349513928158</v>
       </c>
       <c r="J20">
-        <v>5.411016773962587</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>3.06311540081461</v>
+        <v>5.407629589475022</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>3.061376381390801</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.166609426623893</v>
+        <v>2.167002114674688</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03547906701768255</v>
+        <v>0.03523289202061619</v>
       </c>
       <c r="E21">
-        <v>0.01685859311996385</v>
+        <v>0.0167467581038796</v>
       </c>
       <c r="F21">
-        <v>4.007607862610485</v>
+        <v>4.000445477778442</v>
       </c>
       <c r="G21">
-        <v>3.196998760545299</v>
+        <v>1.089330482705847</v>
       </c>
       <c r="H21">
-        <v>0.02418867375343314</v>
+        <v>2.102970547177904</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.02437916503054094</v>
       </c>
       <c r="J21">
-        <v>6.172445275085295</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>3.516619097219007</v>
+        <v>6.168370872632266</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.514499599818805</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.33774266796695</v>
+        <v>2.338140801584075</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04107714664558415</v>
+        <v>0.04079852145427054</v>
       </c>
       <c r="E22">
-        <v>0.01675247841920413</v>
+        <v>0.01663326918154606</v>
       </c>
       <c r="F22">
-        <v>4.405767541328601</v>
+        <v>4.397771870999918</v>
       </c>
       <c r="G22">
-        <v>3.519212748812919</v>
+        <v>1.200307742569578</v>
       </c>
       <c r="H22">
-        <v>0.01697327830213879</v>
+        <v>2.31317172641856</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01716979671456542</v>
       </c>
       <c r="J22">
-        <v>6.685253841775591</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>3.824755362162023</v>
+        <v>6.680679000103851</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.822354347026447</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.246082578558571</v>
+        <v>2.246478400956448</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03800730946906583</v>
+        <v>0.03774640535406348</v>
       </c>
       <c r="E23">
-        <v>0.01680678686303771</v>
+        <v>0.0166915040159008</v>
       </c>
       <c r="F23">
-        <v>4.190565427754422</v>
+        <v>4.183023429880961</v>
       </c>
       <c r="G23">
-        <v>3.344964837339631</v>
+        <v>1.140314356788863</v>
       </c>
       <c r="H23">
-        <v>0.02054484654330757</v>
+        <v>2.199479549889588</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0207385367772952</v>
       </c>
       <c r="J23">
-        <v>6.409966876844663</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3.659069060433552</v>
+        <v>6.405664661936356</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.656821852116934</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.905355598296723</v>
+        <v>1.905731182652573</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02800610526898595</v>
+        <v>0.02780449341591407</v>
       </c>
       <c r="E24">
-        <v>0.0170639013930094</v>
+        <v>0.01696375724896271</v>
       </c>
       <c r="F24">
-        <v>3.429199080077041</v>
+        <v>3.42320229220357</v>
       </c>
       <c r="G24">
-        <v>2.730326317239815</v>
+        <v>0.9282662691282439</v>
       </c>
       <c r="H24">
-        <v>0.03977967830446527</v>
+        <v>1.798830973211579</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0399551716425588</v>
       </c>
       <c r="J24">
-        <v>5.398786392658309</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>3.055870173909767</v>
+        <v>5.395409739338646</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>3.054136926312538</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.547830681533725</v>
+        <v>1.548167896043196</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01975199830465613</v>
+        <v>0.01960275139614964</v>
       </c>
       <c r="E25">
-        <v>0.01745498936939782</v>
+        <v>0.01737202431894769</v>
       </c>
       <c r="F25">
-        <v>2.692712639947928</v>
+        <v>2.688131010401889</v>
       </c>
       <c r="G25">
-        <v>2.138841509846628</v>
+        <v>0.7234108453833699</v>
       </c>
       <c r="H25">
-        <v>0.07036883131682714</v>
+        <v>1.414018844365742</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.07051393200733802</v>
       </c>
       <c r="J25">
-        <v>4.356181099198295</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.442792948340227</v>
+        <v>4.353648399817587</v>
       </c>
       <c r="L25">
+        <v>2.441515884635933</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.290483333720061</v>
+        <v>0.2721913838980328</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01503404700576638</v>
+        <v>0.1965192727474232</v>
       </c>
       <c r="E2">
-        <v>0.01777708837584768</v>
+        <v>0.03779815120825702</v>
       </c>
       <c r="F2">
-        <v>2.196698721378993</v>
+        <v>5.733500116407015</v>
       </c>
       <c r="G2">
-        <v>0.5865613365858451</v>
+        <v>0.0007542638744369761</v>
       </c>
       <c r="H2">
-        <v>1.158658616333113</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.09962276107885693</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0344309407095853</v>
       </c>
       <c r="K2">
-        <v>3.613161953708385</v>
+        <v>4.648803186522997</v>
       </c>
       <c r="L2">
-        <v>2.011592321424374</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.798151044052858</v>
+      </c>
+      <c r="N2">
+        <v>0.7768988105379719</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.118146452011416</v>
+        <v>0.2374537596759438</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01259565333580426</v>
+        <v>0.1646642737980955</v>
       </c>
       <c r="E3">
-        <v>0.01812008165826029</v>
+        <v>0.03371179155534065</v>
       </c>
       <c r="F3">
-        <v>1.886006505162044</v>
+        <v>5.052110151141079</v>
       </c>
       <c r="G3">
-        <v>0.5000536856086626</v>
+        <v>0.0007734921204876281</v>
       </c>
       <c r="H3">
-        <v>0.9982068194088214</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1227473650208957</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03563714111928462</v>
       </c>
       <c r="K3">
-        <v>3.12229400321138</v>
+        <v>3.972662517695795</v>
       </c>
       <c r="L3">
-        <v>1.729195120874664</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.40193229347949</v>
+      </c>
+      <c r="N3">
+        <v>0.8585687416683179</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.013138657142207</v>
+        <v>0.2163814391597754</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01135477412952923</v>
+        <v>0.1462094831740899</v>
       </c>
       <c r="E4">
-        <v>0.01836557579200715</v>
+        <v>0.03131356634913907</v>
       </c>
       <c r="F4">
-        <v>1.703932238525169</v>
+        <v>4.66044998479785</v>
       </c>
       <c r="G4">
-        <v>0.4493474757527594</v>
+        <v>0.0007853635086076837</v>
       </c>
       <c r="H4">
-        <v>0.9046104311697718</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1384219316527462</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03643509562101599</v>
       </c>
       <c r="K4">
-        <v>2.824809137827174</v>
+        <v>3.574079856507154</v>
       </c>
       <c r="L4">
-        <v>1.559091973101317</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.168436728359282</v>
+      </c>
+      <c r="N4">
+        <v>0.9104337131607281</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9705080175702108</v>
+        <v>0.2078502292516902</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0109048211456475</v>
+        <v>0.1389140087864291</v>
       </c>
       <c r="E5">
-        <v>0.01847455750773097</v>
+        <v>0.03035802489422679</v>
       </c>
       <c r="F5">
-        <v>1.631619069158603</v>
+        <v>4.506488213892226</v>
       </c>
       <c r="G5">
-        <v>0.4292040868788547</v>
+        <v>0.0007902307423752761</v>
       </c>
       <c r="H5">
-        <v>0.867538960224465</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1451541511977785</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03677395387999738</v>
       </c>
       <c r="K5">
-        <v>2.704372380638176</v>
+        <v>3.415062353504652</v>
       </c>
       <c r="L5">
-        <v>1.490454925298863</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.075307611187597</v>
+      </c>
+      <c r="N5">
+        <v>0.9319860116999603</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9634378010078422</v>
+        <v>0.2064367740584601</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01083323754905408</v>
+        <v>0.137714831958732</v>
       </c>
       <c r="E6">
-        <v>0.018493198651929</v>
+        <v>0.03020051544878299</v>
       </c>
       <c r="F6">
-        <v>1.619717120382006</v>
+        <v>4.481235911987056</v>
       </c>
       <c r="G6">
-        <v>0.4258883591096492</v>
+        <v>0.0007910410693807722</v>
       </c>
       <c r="H6">
-        <v>0.8614433521129428</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1462921292443742</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03683102834732743</v>
       </c>
       <c r="K6">
-        <v>2.684416514920116</v>
+        <v>3.388843811134791</v>
       </c>
       <c r="L6">
-        <v>1.479095009223897</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.059954370807276</v>
+      </c>
+      <c r="N6">
+        <v>0.9355895255840014</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.012563126508383</v>
+        <v>0.216266168451213</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01134849104790092</v>
+        <v>0.1461102453984751</v>
       </c>
       <c r="E7">
-        <v>0.01836700913831457</v>
+        <v>0.0313005987122672</v>
       </c>
       <c r="F7">
-        <v>1.702949744861641</v>
+        <v>4.658352037791616</v>
       </c>
       <c r="G7">
-        <v>0.4490738168189381</v>
+        <v>0.0007854290145386845</v>
       </c>
       <c r="H7">
-        <v>0.9041063480801483</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1385113619593161</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03643961105467319</v>
       </c>
       <c r="K7">
-        <v>2.823181921587576</v>
+        <v>3.57192239588116</v>
       </c>
       <c r="L7">
-        <v>1.558163731314963</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.167173091390396</v>
+      </c>
+      <c r="N7">
+        <v>0.9107227057120948</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.230866981389624</v>
+        <v>0.2601550174596383</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01413446280878361</v>
+        <v>0.1852713994520911</v>
       </c>
       <c r="E8">
-        <v>0.01788821073134805</v>
+        <v>0.03636208426402376</v>
       </c>
       <c r="F8">
-        <v>2.087574366529182</v>
+        <v>5.492299632482968</v>
       </c>
       <c r="G8">
-        <v>0.5561780872751143</v>
+        <v>0.0007608889604222088</v>
       </c>
       <c r="H8">
-        <v>1.102205770619506</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.107272977971407</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03483445517004213</v>
       </c>
       <c r="K8">
-        <v>3.442975564796143</v>
+        <v>4.411727500707059</v>
       </c>
       <c r="L8">
-        <v>1.913445340228961</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.659213631238657</v>
+      </c>
+      <c r="N8">
+        <v>0.8046917219921497</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.667567951280063</v>
+        <v>0.3487203262066032</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02209715208715224</v>
+        <v>0.2739124330927325</v>
       </c>
       <c r="E9">
-        <v>0.01721870220442412</v>
+        <v>0.04753010231002008</v>
       </c>
       <c r="F9">
-        <v>2.926678426174874</v>
+        <v>7.401774610784685</v>
       </c>
       <c r="G9">
-        <v>0.78986510607821</v>
+        <v>0.0007125237634707987</v>
       </c>
       <c r="H9">
-        <v>1.538559250714115</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.05908473321262875</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.03218312525058131</v>
       </c>
       <c r="K9">
-        <v>4.699589115696682</v>
+        <v>6.234033831570542</v>
       </c>
       <c r="L9">
-        <v>2.643950036302911</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.72709253450941</v>
+      </c>
+      <c r="N9">
+        <v>0.6112517900145242</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.997267750076816</v>
+        <v>0.4161166456675716</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03026457630378587</v>
+        <v>0.352287788791898</v>
       </c>
       <c r="E10">
-        <v>0.0168810765121794</v>
+        <v>0.057216571590196</v>
       </c>
       <c r="F10">
-        <v>3.621497632416236</v>
+        <v>9.091176304470707</v>
       </c>
       <c r="G10">
-        <v>0.9835741361454211</v>
+        <v>0.0006753841737641388</v>
       </c>
       <c r="H10">
-        <v>1.903132731049439</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.03386384960169941</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.03061525798276321</v>
       </c>
       <c r="K10">
-        <v>5.665018723323413</v>
+        <v>7.764629963101441</v>
       </c>
       <c r="L10">
-        <v>3.214149609408111</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.623226649283296</v>
+      </c>
+      <c r="N10">
+        <v>0.4794865326628823</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.150173088819997</v>
+        <v>0.447529743914842</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03471619108387358</v>
+        <v>0.3930037332292642</v>
       </c>
       <c r="E11">
-        <v>0.0167590551908674</v>
+        <v>0.06221349262896148</v>
       </c>
       <c r="F11">
-        <v>3.9622099173707</v>
+        <v>9.964231919131834</v>
       </c>
       <c r="G11">
-        <v>1.078655949431067</v>
+        <v>0.0006576234950339611</v>
       </c>
       <c r="H11">
-        <v>2.082777767960451</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02521533797179831</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0300111978368971</v>
       </c>
       <c r="K11">
-        <v>6.118258371625728</v>
+        <v>8.532707041815058</v>
       </c>
       <c r="L11">
-        <v>3.484503336701835</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.072408395011678</v>
+      </c>
+      <c r="N11">
+        <v>0.4222940309001508</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.208596300513875</v>
+        <v>0.4595625845659868</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03653316033933862</v>
+        <v>0.4094444903045087</v>
       </c>
       <c r="E12">
-        <v>0.01671726970030196</v>
+        <v>0.06422758587988753</v>
       </c>
       <c r="F12">
-        <v>4.095583126180969</v>
+        <v>10.31546801063183</v>
       </c>
       <c r="G12">
-        <v>1.115894628382009</v>
+        <v>0.0006507050872548477</v>
       </c>
       <c r="H12">
-        <v>2.153241680835407</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.0224104348376466</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02980162172555367</v>
       </c>
       <c r="K12">
-        <v>6.292427762382431</v>
+        <v>8.837883277593306</v>
       </c>
       <c r="L12">
-        <v>3.588847101893208</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.250761454757338</v>
+      </c>
+      <c r="N12">
+        <v>0.4010949622387265</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.195988812424673</v>
+        <v>0.4569644115033356</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03613553496475674</v>
+        <v>0.4058519264867613</v>
       </c>
       <c r="E13">
-        <v>0.01672607354335742</v>
+        <v>0.06378759878216833</v>
       </c>
       <c r="F13">
-        <v>4.066650325550199</v>
+        <v>10.23878753220674</v>
       </c>
       <c r="G13">
-        <v>1.107815493779057</v>
+        <v>0.0006522051091361808</v>
       </c>
       <c r="H13">
-        <v>2.137949348008249</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02299245538394956</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02984583273746821</v>
       </c>
       <c r="K13">
-        <v>6.254794953224462</v>
+        <v>8.771436704310958</v>
       </c>
       <c r="L13">
-        <v>3.566280184936886</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.211934448591549</v>
+      </c>
+      <c r="N13">
+        <v>0.4056388787495067</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.15496850603256</v>
+        <v>0.4485167365139517</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03486287640826902</v>
+        <v>0.3943336293437198</v>
       </c>
       <c r="E14">
-        <v>0.01675552932883573</v>
+        <v>0.06237647184951278</v>
       </c>
       <c r="F14">
-        <v>3.973090074561696</v>
+        <v>9.992673438152167</v>
       </c>
       <c r="G14">
-        <v>1.081693363236539</v>
+        <v>0.0006570586843546616</v>
       </c>
       <c r="H14">
-        <v>2.088523093021593</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02497474312795145</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02999354626071593</v>
       </c>
       <c r="K14">
-        <v>6.132533172978725</v>
+        <v>8.557497389031539</v>
       </c>
       <c r="L14">
-        <v>3.493045801925859</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.086899176707817</v>
+      </c>
+      <c r="N14">
+        <v>0.4205403272761465</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.129913598232463</v>
+        <v>0.4433612164492189</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03410128589079164</v>
+        <v>0.3874226449291882</v>
       </c>
       <c r="E15">
-        <v>0.01677414511319775</v>
+        <v>0.06152939735361684</v>
       </c>
       <c r="F15">
-        <v>3.916375752767692</v>
+        <v>9.844817885466057</v>
       </c>
       <c r="G15">
-        <v>1.065861193307498</v>
+        <v>0.0006600039620925169</v>
       </c>
       <c r="H15">
-        <v>2.058580514212295</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.02625228821246495</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.03008665040217195</v>
       </c>
       <c r="K15">
-        <v>6.057992001255229</v>
+        <v>8.428468689730693</v>
       </c>
       <c r="L15">
-        <v>3.448456789026977</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.011472631868756</v>
+      </c>
+      <c r="N15">
+        <v>0.4297299128884262</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.987342047475892</v>
+        <v>0.4140811574472423</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02999050139137793</v>
+        <v>0.3497509924894047</v>
       </c>
       <c r="E16">
-        <v>0.01688967482191828</v>
+        <v>0.05690466604840516</v>
       </c>
       <c r="F16">
-        <v>3.599792286660573</v>
+        <v>9.036647885186454</v>
       </c>
       <c r="G16">
-        <v>0.9775191088143629</v>
+        <v>0.0006765222783049474</v>
       </c>
       <c r="H16">
-        <v>1.891706571257401</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.03449107218484038</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.03065719589938709</v>
       </c>
       <c r="K16">
-        <v>5.635722932351399</v>
+        <v>7.716181925399582</v>
       </c>
       <c r="L16">
-        <v>3.196733452006399</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.594880481394839</v>
+      </c>
+      <c r="N16">
+        <v>0.4832843751612579</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.9006937596846</v>
+        <v>0.3963296879076381</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02767347612425652</v>
+        <v>0.3281083386677466</v>
       </c>
       <c r="E17">
-        <v>0.01696853426668454</v>
+        <v>0.05424006087723754</v>
       </c>
       <c r="F17">
-        <v>3.412411283864742</v>
+        <v>8.570913166883514</v>
       </c>
       <c r="G17">
-        <v>0.9252570827125766</v>
+        <v>0.0006863940279231343</v>
       </c>
       <c r="H17">
-        <v>1.793160571104096</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.04031045543417022</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.03103721704393614</v>
       </c>
       <c r="K17">
-        <v>5.380608828947828</v>
+        <v>7.299944506396798</v>
       </c>
       <c r="L17">
-        <v>3.045370018253337</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.351288971804621</v>
+      </c>
+      <c r="N17">
+        <v>0.5168802391542116</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.851124073911876</v>
+        <v>0.3861883385504115</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02640825823063508</v>
+        <v>0.3161133778354639</v>
       </c>
       <c r="E18">
-        <v>0.01701686828454285</v>
+        <v>0.05276009961753658</v>
       </c>
       <c r="F18">
-        <v>3.306895941742368</v>
+        <v>8.312436831073114</v>
       </c>
       <c r="G18">
-        <v>0.8958362077146944</v>
+        <v>0.0006919958615107175</v>
       </c>
       <c r="H18">
-        <v>1.737746192608085</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.04391900439204122</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.03126580173144866</v>
       </c>
       <c r="K18">
-        <v>5.235160849469224</v>
+        <v>7.066981064654868</v>
       </c>
       <c r="L18">
-        <v>2.959314411286456</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.214911358675607</v>
+      </c>
+      <c r="N18">
+        <v>0.5364575353686334</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.834383905427956</v>
+        <v>0.382765739992621</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0259907869629501</v>
+        <v>0.3121229847299674</v>
       </c>
       <c r="E19">
-        <v>0.01703374890330522</v>
+        <v>0.05226718847656286</v>
       </c>
       <c r="F19">
-        <v>3.271536735913344</v>
+        <v>8.22640225954018</v>
       </c>
       <c r="G19">
-        <v>0.8859782626424675</v>
+        <v>0.0006938811007998694</v>
       </c>
       <c r="H19">
-        <v>1.719189181485959</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0.04518394049287</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.03134483140916444</v>
       </c>
       <c r="K19">
-        <v>5.186121744756264</v>
+        <v>6.989115276573017</v>
       </c>
       <c r="L19">
-        <v>2.930339464481492</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.169322211309776</v>
+      </c>
+      <c r="N19">
+        <v>0.5431281046495684</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.909889197727836</v>
+        <v>0.3982120596006524</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02791297922641789</v>
+        <v>0.3303635978492565</v>
       </c>
       <c r="E20">
-        <v>0.01695983254396083</v>
+        <v>0.05451804970233098</v>
       </c>
       <c r="F20">
-        <v>3.432118969746597</v>
+        <v>8.619485355002467</v>
       </c>
       <c r="G20">
-        <v>0.9307528249372865</v>
+        <v>0.0006853514456501832</v>
       </c>
       <c r="H20">
-        <v>1.803516904233945</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0.03966349513928158</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0309957068541884</v>
       </c>
       <c r="K20">
-        <v>5.407629589475022</v>
+        <v>7.343563085754397</v>
       </c>
       <c r="L20">
-        <v>3.061376381390801</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.376820204701076</v>
+      </c>
+      <c r="N20">
+        <v>0.5132772460097819</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.167002114674688</v>
+        <v>0.4509940122314759</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03523289202061619</v>
+        <v>0.3976860162922691</v>
       </c>
       <c r="E21">
-        <v>0.0167467581038796</v>
+        <v>0.06278725816481234</v>
       </c>
       <c r="F21">
-        <v>4.000445477778442</v>
+        <v>10.06434555128322</v>
       </c>
       <c r="G21">
-        <v>1.089330482705847</v>
+        <v>0.0006556390103754132</v>
       </c>
       <c r="H21">
-        <v>2.102970547177904</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.02437916503054094</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02994960355414555</v>
       </c>
       <c r="K21">
-        <v>6.168370872632266</v>
+        <v>8.61990658325584</v>
       </c>
       <c r="L21">
-        <v>3.514499599818805</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.123377381867655</v>
+      </c>
+      <c r="N21">
+        <v>0.4161503345026496</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.338140801584075</v>
+        <v>0.4863131419523938</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04079852145427054</v>
+        <v>0.4479067868562367</v>
       </c>
       <c r="E22">
-        <v>0.01663326918154606</v>
+        <v>0.06893556646661381</v>
       </c>
       <c r="F22">
-        <v>4.397771870999918</v>
+        <v>11.1337532995617</v>
       </c>
       <c r="G22">
-        <v>1.200307742569578</v>
+        <v>0.0006350367003295162</v>
       </c>
       <c r="H22">
-        <v>2.31317172641856</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.01716979671456542</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02938060007398846</v>
       </c>
       <c r="K22">
-        <v>6.680679000103851</v>
+        <v>9.541038527921415</v>
       </c>
       <c r="L22">
-        <v>3.822354347026447</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.661416340233416</v>
+      </c>
+      <c r="N22">
+        <v>0.3553960723210459</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.246478400956448</v>
+        <v>0.4673747158617658</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03774640535406348</v>
+        <v>0.4203934137371164</v>
       </c>
       <c r="E23">
-        <v>0.0166915040159008</v>
+        <v>0.06556818028841604</v>
       </c>
       <c r="F23">
-        <v>4.183023429880961</v>
+        <v>10.54891197055278</v>
       </c>
       <c r="G23">
-        <v>1.140314356788863</v>
+        <v>0.0006461730104863716</v>
       </c>
       <c r="H23">
-        <v>2.199479549889588</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0207385367772952</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02967218350817014</v>
       </c>
       <c r="K23">
-        <v>6.405664661936356</v>
+        <v>9.03957269659665</v>
       </c>
       <c r="L23">
-        <v>3.656821852116934</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.368593899471279</v>
+      </c>
+      <c r="N23">
+        <v>0.3875440303718243</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.905731182652573</v>
+        <v>0.3973608413948995</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02780449341591407</v>
+        <v>0.329342620723267</v>
       </c>
       <c r="E24">
-        <v>0.01696375724896271</v>
+        <v>0.0543922116205664</v>
       </c>
       <c r="F24">
-        <v>3.42320229220357</v>
+        <v>8.597497343233329</v>
       </c>
       <c r="G24">
-        <v>0.9282662691282439</v>
+        <v>0.0006858230215164667</v>
       </c>
       <c r="H24">
-        <v>1.798830973211579</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.0399551716425588</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.03101444237246298</v>
       </c>
       <c r="K24">
-        <v>5.395409739338646</v>
+        <v>7.323823660319192</v>
       </c>
       <c r="L24">
-        <v>3.054136926312538</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.365266270362952</v>
+      </c>
+      <c r="N24">
+        <v>0.5149053457006438</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.548167896043196</v>
+        <v>0.3244205952290571</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01960275139614964</v>
+        <v>0.2481555879207775</v>
       </c>
       <c r="E25">
-        <v>0.01737202431894769</v>
+        <v>0.0443154206291787</v>
       </c>
       <c r="F25">
-        <v>2.688131010401889</v>
+        <v>6.84568602053605</v>
       </c>
       <c r="G25">
-        <v>0.7234108453833699</v>
+        <v>0.0007257581341308038</v>
       </c>
       <c r="H25">
-        <v>1.414018844365742</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.07051393200733802</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.03284054864989727</v>
       </c>
       <c r="K25">
-        <v>4.353648399817587</v>
+        <v>5.715051173417294</v>
       </c>
       <c r="L25">
-        <v>2.441515884635933</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>3.423019596798184</v>
+      </c>
+      <c r="N25">
+        <v>0.6618976056118839</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2721913838980328</v>
+        <v>0.2565529064126508</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1965192727474232</v>
+        <v>0.1936350463689109</v>
       </c>
       <c r="E2">
-        <v>0.03779815120825702</v>
+        <v>0.1695156020315665</v>
       </c>
       <c r="F2">
-        <v>5.733500116407015</v>
+        <v>0.8438117040145556</v>
       </c>
       <c r="G2">
-        <v>0.0007542638744369761</v>
+        <v>0.0007977322686493304</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1900971016789845</v>
       </c>
       <c r="J2">
-        <v>0.0344309407095853</v>
+        <v>0.1908623227873747</v>
       </c>
       <c r="K2">
-        <v>4.648803186522997</v>
+        <v>2.185458273677739</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.798151044052858</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7768988105379719</v>
+        <v>0.7498400023762528</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.849947729373781</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2374537596759438</v>
+        <v>0.2234072222791923</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1646642737980955</v>
+        <v>0.1719743266582867</v>
       </c>
       <c r="E3">
-        <v>0.03371179155534065</v>
+        <v>0.150992245502497</v>
       </c>
       <c r="F3">
-        <v>5.052110151141079</v>
+        <v>0.7903217258210375</v>
       </c>
       <c r="G3">
-        <v>0.0007734921204876281</v>
+        <v>0.0008018768129689511</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2019950435573308</v>
       </c>
       <c r="J3">
-        <v>0.03563714111928462</v>
+        <v>0.1703446463263276</v>
       </c>
       <c r="K3">
-        <v>3.972662517695795</v>
+        <v>1.899326133352389</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.40193229347949</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8585687416683179</v>
+        <v>0.7771790353970864</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.757512921875161</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2163814391597754</v>
+        <v>0.2030352973248455</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1462094831740899</v>
+        <v>0.1588092116852096</v>
       </c>
       <c r="E4">
-        <v>0.03131356634913907</v>
+        <v>0.1397898804433098</v>
       </c>
       <c r="F4">
-        <v>4.66044998479785</v>
+        <v>0.7590050644254518</v>
       </c>
       <c r="G4">
-        <v>0.0007853635086076837</v>
+        <v>0.0008045064040328453</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2097080374227538</v>
       </c>
       <c r="J4">
-        <v>0.03643509562101599</v>
+        <v>0.1579881782882069</v>
       </c>
       <c r="K4">
-        <v>3.574079856507154</v>
+        <v>1.723993195118766</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.168436728359282</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9104337131607281</v>
+        <v>0.7949123541268897</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.704615723728352</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2078502292516902</v>
+        <v>0.1947272112625029</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1389140087864291</v>
+        <v>0.1534753233222546</v>
       </c>
       <c r="E5">
-        <v>0.03035802489422679</v>
+        <v>0.1352643192889111</v>
       </c>
       <c r="F5">
-        <v>4.506488213892226</v>
+        <v>0.7466045753184645</v>
       </c>
       <c r="G5">
-        <v>0.0007902307423752761</v>
+        <v>0.0008055997126761197</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2129511880542223</v>
       </c>
       <c r="J5">
-        <v>0.03677395387999738</v>
+        <v>0.153008589580736</v>
       </c>
       <c r="K5">
-        <v>3.415062353504652</v>
+        <v>1.652605281445261</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.075307611187597</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9319860116999603</v>
+        <v>0.8023713028898634</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.683974952511079</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2064367740584601</v>
+        <v>0.1933472407897341</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.137714831958732</v>
+        <v>0.1525914270847153</v>
       </c>
       <c r="E6">
-        <v>0.03020051544878299</v>
+        <v>0.1345151392752406</v>
       </c>
       <c r="F6">
-        <v>4.481235911987056</v>
+        <v>0.7445666690105313</v>
       </c>
       <c r="G6">
-        <v>0.0007910410693807722</v>
+        <v>0.0008057825794424711</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2134956830535257</v>
       </c>
       <c r="J6">
-        <v>0.03683102834732743</v>
+        <v>0.1521849615338411</v>
       </c>
       <c r="K6">
-        <v>3.388843811134791</v>
+        <v>1.640754335801347</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.059954370807276</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9355895255840014</v>
+        <v>0.8036237362845675</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.680601296687627</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.216266168451213</v>
+        <v>0.2029232789185187</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1461102453984751</v>
+        <v>0.158737155137942</v>
       </c>
       <c r="E7">
-        <v>0.0313005987122672</v>
+        <v>0.1397286917507223</v>
       </c>
       <c r="F7">
-        <v>4.658352037791616</v>
+        <v>0.7588363931015181</v>
       </c>
       <c r="G7">
-        <v>0.0007854290145386845</v>
+        <v>0.0008045210603034417</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2097513737904859</v>
       </c>
       <c r="J7">
-        <v>0.03643961105467319</v>
+        <v>0.1579208023406906</v>
       </c>
       <c r="K7">
-        <v>3.57192239588116</v>
+        <v>1.723030217707702</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.167173091390396</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9107227057120948</v>
+        <v>0.7950120141062378</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.704333719672519</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2601550174596383</v>
+        <v>0.2451277124208673</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1852713994520911</v>
+        <v>0.1861367092326986</v>
       </c>
       <c r="E8">
-        <v>0.03636208426402376</v>
+        <v>0.1630910658975537</v>
       </c>
       <c r="F8">
-        <v>5.492299632482968</v>
+        <v>0.8250376185522867</v>
       </c>
       <c r="G8">
-        <v>0.0007608889604222088</v>
+        <v>0.0007991439486524921</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1941134102330522</v>
       </c>
       <c r="J8">
-        <v>0.03483445517004213</v>
+        <v>0.1837346455554396</v>
       </c>
       <c r="K8">
-        <v>4.411727500707059</v>
+        <v>2.086709614190625</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.659213631238657</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8046917219921497</v>
+        <v>0.7590664532691349</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.81724148835815</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3487203262066032</v>
+        <v>0.3277931164390537</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2739124330927325</v>
+        <v>0.2410748113001944</v>
       </c>
       <c r="E9">
-        <v>0.04753010231002008</v>
+        <v>0.2104322537006595</v>
       </c>
       <c r="F9">
-        <v>7.401774610784685</v>
+        <v>0.968051797929931</v>
       </c>
       <c r="G9">
-        <v>0.0007125237634707987</v>
+        <v>0.0007892533766762142</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1667956906880619</v>
       </c>
       <c r="J9">
-        <v>0.03218312525058131</v>
+        <v>0.2365105305186574</v>
       </c>
       <c r="K9">
-        <v>6.234033831570542</v>
+        <v>2.804033227253825</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.72709253450941</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6112517900145242</v>
+        <v>0.6963587765079993</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.071900457757209</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4161166456675716</v>
+        <v>0.3885684731439909</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.352287788791898</v>
+        <v>0.2823836982110066</v>
       </c>
       <c r="E10">
-        <v>0.057216571590196</v>
+        <v>0.2464004742849681</v>
       </c>
       <c r="F10">
-        <v>9.091176304470707</v>
+        <v>1.082778273622708</v>
       </c>
       <c r="G10">
-        <v>0.0006753841737641388</v>
+        <v>0.0007823571314054079</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1489304842232331</v>
       </c>
       <c r="J10">
-        <v>0.03061525798276321</v>
+        <v>0.2769563398600354</v>
       </c>
       <c r="K10">
-        <v>7.764629963101441</v>
+        <v>3.335638691109637</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.623226649283296</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4794865326628823</v>
+        <v>0.6554206469560455</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.283181912337596</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.447529743914842</v>
+        <v>0.4162497865167438</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3930037332292642</v>
+        <v>0.3014318242341574</v>
       </c>
       <c r="E11">
-        <v>0.06221349262896148</v>
+        <v>0.2630822824367485</v>
       </c>
       <c r="F11">
-        <v>9.964231919131834</v>
+        <v>1.137452477881638</v>
       </c>
       <c r="G11">
-        <v>0.0006576234950339611</v>
+        <v>0.0007792935864185063</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.1413200622243469</v>
       </c>
       <c r="J11">
-        <v>0.0300111978368971</v>
+        <v>0.2958050174059821</v>
       </c>
       <c r="K11">
-        <v>8.532707041815058</v>
+        <v>3.578976298618159</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.072408395011678</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4222940309001508</v>
+        <v>0.6380035592405804</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.385488882118608</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4595625845659868</v>
+        <v>0.426738924739908</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4094444903045087</v>
+        <v>0.3086861805490315</v>
       </c>
       <c r="E12">
-        <v>0.06422758587988753</v>
+        <v>0.2694506793772788</v>
       </c>
       <c r="F12">
-        <v>10.31546801063183</v>
+        <v>1.158548103137946</v>
       </c>
       <c r="G12">
-        <v>0.0006507050872548477</v>
+        <v>0.0007781434971337642</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1385158748019801</v>
       </c>
       <c r="J12">
-        <v>0.02980162172555367</v>
+        <v>0.3030148789347038</v>
       </c>
       <c r="K12">
-        <v>8.837883277593306</v>
+        <v>3.671383142036348</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.250761454757338</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4010949622387265</v>
+        <v>0.6315898877858643</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.425205026586724</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4569644115033356</v>
+        <v>0.4244795660193432</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4058519264867613</v>
+        <v>0.3071219178165308</v>
       </c>
       <c r="E13">
-        <v>0.06378759878216833</v>
+        <v>0.2680767567387008</v>
       </c>
       <c r="F13">
-        <v>10.23878753220674</v>
+        <v>1.153986786036398</v>
       </c>
       <c r="G13">
-        <v>0.0006522051091361808</v>
+        <v>0.000778390753880363</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1391162936001011</v>
       </c>
       <c r="J13">
-        <v>0.02984583273746821</v>
+        <v>0.3014587641247601</v>
       </c>
       <c r="K13">
-        <v>8.771436704310958</v>
+        <v>3.651469373560303</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.211934448591549</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4056388787495067</v>
+        <v>0.6329629613821055</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.416606686303794</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4485167365139517</v>
+        <v>0.4171125861218883</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3943336293437198</v>
+        <v>0.3020277917513425</v>
       </c>
       <c r="E14">
-        <v>0.06237647184951278</v>
+        <v>0.2636051526508325</v>
       </c>
       <c r="F14">
-        <v>9.992673438152167</v>
+        <v>1.139179971103687</v>
       </c>
       <c r="G14">
-        <v>0.0006570586843546616</v>
+        <v>0.0007791987707821413</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1410877821613568</v>
       </c>
       <c r="J14">
-        <v>0.02999354626071593</v>
+        <v>0.2963966827956312</v>
       </c>
       <c r="K14">
-        <v>8.557497389031539</v>
+        <v>3.586573189435967</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.086899176707817</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4205403272761465</v>
+        <v>0.6374722089851375</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.388736314167005</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4433612164492189</v>
+        <v>0.4126010455490245</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3874226449291882</v>
+        <v>0.298912998665358</v>
       </c>
       <c r="E15">
-        <v>0.06152939735361684</v>
+        <v>0.260873021350136</v>
       </c>
       <c r="F15">
-        <v>9.844817885466057</v>
+        <v>1.130162445253148</v>
       </c>
       <c r="G15">
-        <v>0.0006600039620925169</v>
+        <v>0.0007796949901721639</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1423056017705315</v>
       </c>
       <c r="J15">
-        <v>0.03008665040217195</v>
+        <v>0.2933056604205859</v>
       </c>
       <c r="K15">
-        <v>8.428468689730693</v>
+        <v>3.546857634866683</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.011472631868756</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4297299128884262</v>
+        <v>0.6402581879322611</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.371794446901987</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4140811574472423</v>
+        <v>0.3867602832904851</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3497509924894047</v>
+        <v>0.2811443851806104</v>
       </c>
       <c r="E16">
-        <v>0.05690466604840516</v>
+        <v>0.2453171630600579</v>
       </c>
       <c r="F16">
-        <v>9.036647885186454</v>
+        <v>1.079258064396697</v>
       </c>
       <c r="G16">
-        <v>0.0006765222783049474</v>
+        <v>0.0007825587739925255</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1494385267811866</v>
       </c>
       <c r="J16">
-        <v>0.03065719589938709</v>
+        <v>0.2757342205971014</v>
       </c>
       <c r="K16">
-        <v>7.716181925399582</v>
+        <v>3.319769969246749</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.594880481394839</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4832843751612579</v>
+        <v>0.6565838654241105</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2.276627588554049</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3963296879076381</v>
+        <v>0.3709179037925168</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3281083386677466</v>
+        <v>0.2703126139944345</v>
       </c>
       <c r="E17">
-        <v>0.05424006087723754</v>
+        <v>0.2358597331469667</v>
       </c>
       <c r="F17">
-        <v>8.570913166883514</v>
+        <v>1.048689909673826</v>
       </c>
       <c r="G17">
-        <v>0.0006863940279231343</v>
+        <v>0.0007843340652409479</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1539490303496418</v>
       </c>
       <c r="J17">
-        <v>0.03103721704393614</v>
+        <v>0.2650751189115539</v>
       </c>
       <c r="K17">
-        <v>7.299944506396798</v>
+        <v>3.180874916693313</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.351288971804621</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5168802391542116</v>
+        <v>0.6669137987735212</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.219890038905362</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3861883385504115</v>
+        <v>0.3618088934368586</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3161133778354639</v>
+        <v>0.2641063295970554</v>
       </c>
       <c r="E18">
-        <v>0.05276009961753658</v>
+        <v>0.2304498137859952</v>
       </c>
       <c r="F18">
-        <v>8.312436831073114</v>
+        <v>1.031339564865007</v>
       </c>
       <c r="G18">
-        <v>0.0006919958615107175</v>
+        <v>0.0007853621292065443</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1565917561995658</v>
       </c>
       <c r="J18">
-        <v>0.03126580173144866</v>
+        <v>0.258986121781092</v>
       </c>
       <c r="K18">
-        <v>7.066981064654868</v>
+        <v>3.101125254958646</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.214911358675607</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5364575353686334</v>
+        <v>0.6729682714304488</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.187833712738097</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.382765739992621</v>
+        <v>0.358725217149356</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3121229847299674</v>
+        <v>0.262008959416292</v>
       </c>
       <c r="E19">
-        <v>0.05226718847656286</v>
+        <v>0.2286230590592524</v>
       </c>
       <c r="F19">
-        <v>8.22640225954018</v>
+        <v>1.025503815437347</v>
       </c>
       <c r="G19">
-        <v>0.0006938811007998694</v>
+        <v>0.0007857114267989106</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1574947495444867</v>
       </c>
       <c r="J19">
-        <v>0.03134483140916444</v>
+        <v>0.2569314548678676</v>
       </c>
       <c r="K19">
-        <v>6.989115276573017</v>
+        <v>3.074146016812875</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.169322211309776</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5431281046495684</v>
+        <v>0.6750373671261443</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.177076739116757</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3982120596006524</v>
+        <v>0.372604017237208</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3303635978492565</v>
+        <v>0.2714631741621787</v>
       </c>
       <c r="E20">
-        <v>0.05451804970233098</v>
+        <v>0.2368633765639458</v>
       </c>
       <c r="F20">
-        <v>8.619485355002467</v>
+        <v>1.051919726048027</v>
       </c>
       <c r="G20">
-        <v>0.0006853514456501832</v>
+        <v>0.0007841443658344305</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1534638456947617</v>
       </c>
       <c r="J20">
-        <v>0.0309957068541884</v>
+        <v>0.2662054153025224</v>
       </c>
       <c r="K20">
-        <v>7.343563085754397</v>
+        <v>3.195645833206925</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.376820204701076</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5132772460097819</v>
+        <v>0.6658024088451313</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.225869478815099</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4509940122314759</v>
+        <v>0.4192762457072234</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3976860162922691</v>
+        <v>0.3035229043204453</v>
       </c>
       <c r="E21">
-        <v>0.06278725816481234</v>
+        <v>0.2649171323167252</v>
       </c>
       <c r="F21">
-        <v>10.06434555128322</v>
+        <v>1.143518173856933</v>
       </c>
       <c r="G21">
-        <v>0.0006556390103754132</v>
+        <v>0.0007789611697145586</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.140506570699813</v>
       </c>
       <c r="J21">
-        <v>0.02994960355414555</v>
+        <v>0.2978815135934525</v>
       </c>
       <c r="K21">
-        <v>8.61990658325584</v>
+        <v>3.605627346847427</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.123377381867655</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4161503345026496</v>
+        <v>0.6361427299449929</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.396895362809516</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4863131419523938</v>
+        <v>0.4498200040175675</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4479067868562367</v>
+        <v>0.324718460235033</v>
       </c>
       <c r="E22">
-        <v>0.06893556646661381</v>
+        <v>0.2835540437467685</v>
       </c>
       <c r="F22">
-        <v>11.1337532995617</v>
+        <v>1.205684033792821</v>
       </c>
       <c r="G22">
-        <v>0.0006350367003295162</v>
+        <v>0.0007756316941170797</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1324929567014639</v>
       </c>
       <c r="J22">
-        <v>0.02938060007398846</v>
+        <v>0.3190089283300637</v>
       </c>
       <c r="K22">
-        <v>9.541038527921415</v>
+        <v>3.875113282511904</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.661416340233416</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3553960723210459</v>
+        <v>0.6178223945876624</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.514395796451822</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4673747158617658</v>
+        <v>0.433513835723744</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4203934137371164</v>
+        <v>0.3133822612271047</v>
       </c>
       <c r="E23">
-        <v>0.06556818028841604</v>
+        <v>0.2735776354730461</v>
       </c>
       <c r="F23">
-        <v>10.54891197055278</v>
+        <v>1.172282335694661</v>
       </c>
       <c r="G23">
-        <v>0.0006461730104863716</v>
+        <v>0.000777403587160115</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1367271805965942</v>
       </c>
       <c r="J23">
-        <v>0.02967218350817014</v>
+        <v>0.3076912452336416</v>
       </c>
       <c r="K23">
-        <v>9.03957269659665</v>
+        <v>3.731127412339106</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.368593899471279</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3875440303718243</v>
+        <v>0.6275000276531557</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.451130276904678</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3973608413948995</v>
+        <v>0.371841728653024</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.329342620723267</v>
+        <v>0.2709429406850745</v>
       </c>
       <c r="E24">
-        <v>0.0543922116205664</v>
+        <v>0.2364095447968424</v>
       </c>
       <c r="F24">
-        <v>8.597497343233329</v>
+        <v>1.050458831877521</v>
       </c>
       <c r="G24">
-        <v>0.0006858230215164667</v>
+        <v>0.0007842301057297208</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1536830435127188</v>
       </c>
       <c r="J24">
-        <v>0.03101444237246298</v>
+        <v>0.2656942872019243</v>
       </c>
       <c r="K24">
-        <v>7.323823660319192</v>
+        <v>3.188967584406555</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.365266270362952</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5149053457006438</v>
+        <v>0.6663045086168182</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.223164427166211</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3244205952290571</v>
+        <v>0.3054303710741948</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2481555879207775</v>
+        <v>0.2260625132734191</v>
       </c>
       <c r="E25">
-        <v>0.0443154206291787</v>
+        <v>0.1974363489479529</v>
       </c>
       <c r="F25">
-        <v>6.84568602053605</v>
+        <v>0.9277905188652511</v>
       </c>
       <c r="G25">
-        <v>0.0007257581341308038</v>
+        <v>0.0007918618528904159</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1738109834651631</v>
       </c>
       <c r="J25">
-        <v>0.03284054864989727</v>
+        <v>0.2219671213158847</v>
       </c>
       <c r="K25">
-        <v>5.715051173417294</v>
+        <v>2.609330805379358</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.423019596798184</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6618976056118839</v>
+        <v>0.7124510762287741</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.999061113757818</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2565529064126508</v>
+        <v>0.08943201502788156</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1936350463689109</v>
+        <v>0.1948903110990585</v>
       </c>
       <c r="E2">
-        <v>0.1695156020315665</v>
+        <v>0.1678563450209651</v>
       </c>
       <c r="F2">
-        <v>0.8438117040145556</v>
+        <v>1.381042796064705</v>
       </c>
       <c r="G2">
-        <v>0.0007977322686493304</v>
+        <v>0.002451400755762983</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1900971016789845</v>
+        <v>0.4533284278391356</v>
       </c>
       <c r="J2">
-        <v>0.1908623227873747</v>
+        <v>0.186868640309811</v>
       </c>
       <c r="K2">
-        <v>2.185458273677739</v>
+        <v>0.8053691607786959</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7498400023762528</v>
+        <v>1.371772158472872</v>
       </c>
       <c r="O2">
-        <v>1.849947729373781</v>
+        <v>3.284725044647814</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2234072222791923</v>
+        <v>0.07898517216182199</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1719743266582867</v>
+        <v>0.1898770388727229</v>
       </c>
       <c r="E3">
-        <v>0.150992245502497</v>
+        <v>0.1638719165803231</v>
       </c>
       <c r="F3">
-        <v>0.7903217258210375</v>
+        <v>1.377974351892817</v>
       </c>
       <c r="G3">
-        <v>0.0008018768129689511</v>
+        <v>0.002454188753360244</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2019950435573308</v>
+        <v>0.4596567733388368</v>
       </c>
       <c r="J3">
-        <v>0.1703446463263276</v>
+        <v>0.1826903552363603</v>
       </c>
       <c r="K3">
-        <v>1.899326133352389</v>
+        <v>0.7210469065795735</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7771790353970864</v>
+        <v>1.384201999929516</v>
       </c>
       <c r="O3">
-        <v>1.757512921875161</v>
+        <v>3.288251460566727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2030352973248455</v>
+        <v>0.07256721165369129</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1588092116852096</v>
+        <v>0.1868784677719333</v>
       </c>
       <c r="E4">
-        <v>0.1397898804433098</v>
+        <v>0.1615098194224771</v>
       </c>
       <c r="F4">
-        <v>0.7590050644254518</v>
+        <v>1.376867550056232</v>
       </c>
       <c r="G4">
-        <v>0.0008045064040328453</v>
+        <v>0.002455992836384807</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2097080374227538</v>
+        <v>0.4637650084354483</v>
       </c>
       <c r="J4">
-        <v>0.1579881782882069</v>
+        <v>0.180231683285065</v>
       </c>
       <c r="K4">
-        <v>1.723993195118766</v>
+        <v>0.6693078323392854</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7949123541268897</v>
+        <v>1.39231691949788</v>
       </c>
       <c r="O4">
-        <v>1.704615723728352</v>
+        <v>3.292336158825208</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1947272112625029</v>
+        <v>0.06995116669473589</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1534753233222546</v>
+        <v>0.1856766324671355</v>
       </c>
       <c r="E5">
-        <v>0.1352643192889111</v>
+        <v>0.1605684965687466</v>
       </c>
       <c r="F5">
-        <v>0.7466045753184645</v>
+        <v>1.376611969870353</v>
       </c>
       <c r="G5">
-        <v>0.0008055997126761197</v>
+        <v>0.002456751279359963</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2129511880542223</v>
+        <v>0.465495125160539</v>
       </c>
       <c r="J5">
-        <v>0.153008589580736</v>
+        <v>0.1792566179308821</v>
       </c>
       <c r="K5">
-        <v>1.652605281445261</v>
+        <v>0.6482336586487349</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8023713028898634</v>
+        <v>1.395745341284627</v>
       </c>
       <c r="O5">
-        <v>1.683974952511079</v>
+        <v>3.294483170535614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1933472407897341</v>
+        <v>0.06951674020773169</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1525914270847153</v>
+        <v>0.1854782857132449</v>
       </c>
       <c r="E6">
-        <v>0.1345151392752406</v>
+        <v>0.160413475263951</v>
       </c>
       <c r="F6">
-        <v>0.7445666690105313</v>
+        <v>1.376581335997194</v>
       </c>
       <c r="G6">
-        <v>0.0008057825794424711</v>
+        <v>0.002456878625644036</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2134956830535257</v>
+        <v>0.4657857906824976</v>
       </c>
       <c r="J6">
-        <v>0.1521849615338411</v>
+        <v>0.1790963317034837</v>
       </c>
       <c r="K6">
-        <v>1.640754335801347</v>
+        <v>0.6447349392554713</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8036237362845675</v>
+        <v>1.396321970554201</v>
       </c>
       <c r="O6">
-        <v>1.680601296687627</v>
+        <v>3.294868814036789</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2029232789185187</v>
+        <v>0.07253193319225204</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.158737155137942</v>
+        <v>0.1868621778680506</v>
       </c>
       <c r="E7">
-        <v>0.1397286917507223</v>
+        <v>0.1614970383176946</v>
       </c>
       <c r="F7">
-        <v>0.7588363931015181</v>
+        <v>1.376863311831244</v>
       </c>
       <c r="G7">
-        <v>0.0008045210603034417</v>
+        <v>0.002456002970823023</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2097513737904859</v>
+        <v>0.4637881147411056</v>
       </c>
       <c r="J7">
-        <v>0.1579208023406906</v>
+        <v>0.18021842443693</v>
       </c>
       <c r="K7">
-        <v>1.723030217707702</v>
+        <v>0.6690235770620347</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7950120141062378</v>
+        <v>1.392362664224265</v>
       </c>
       <c r="O7">
-        <v>1.704333719672519</v>
+        <v>3.292363160969984</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2451277124208673</v>
+        <v>0.08583081072562493</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1861367092326986</v>
+        <v>0.1931452669322624</v>
       </c>
       <c r="E8">
-        <v>0.1630910658975537</v>
+        <v>0.1664650270109362</v>
       </c>
       <c r="F8">
-        <v>0.8250376185522867</v>
+        <v>1.37982348125901</v>
       </c>
       <c r="G8">
-        <v>0.0007991439486524921</v>
+        <v>0.002452342954775938</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1941134102330522</v>
+        <v>0.4554642412873857</v>
       </c>
       <c r="J8">
-        <v>0.1837346455554396</v>
+        <v>0.1854057998214103</v>
       </c>
       <c r="K8">
-        <v>2.086709614190625</v>
+        <v>0.7762881807904591</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7590664532691349</v>
+        <v>1.375957783609682</v>
       </c>
       <c r="O8">
-        <v>1.81724148835815</v>
+        <v>3.285542437972993</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3277931164390537</v>
+        <v>0.1118732146061205</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2410748113001944</v>
+        <v>0.2060947520767797</v>
       </c>
       <c r="E9">
-        <v>0.2104322537006595</v>
+        <v>0.1768755827011432</v>
       </c>
       <c r="F9">
-        <v>0.968051797929931</v>
+        <v>1.391797336870354</v>
       </c>
       <c r="G9">
-        <v>0.0007892533766762142</v>
+        <v>0.002445894385233122</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1667956906880619</v>
+        <v>0.4409071224823267</v>
       </c>
       <c r="J9">
-        <v>0.2365105305186574</v>
+        <v>0.1964263054521638</v>
       </c>
       <c r="K9">
-        <v>2.804033227253825</v>
+        <v>0.9868751866924583</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6963587765079993</v>
+        <v>1.347615867606414</v>
       </c>
       <c r="O9">
-        <v>2.071900457757209</v>
+        <v>3.287410407507537</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3885684731439909</v>
+        <v>0.1309747286336034</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2823836982110066</v>
+        <v>0.2159886638439872</v>
       </c>
       <c r="E10">
-        <v>0.2464004742849681</v>
+        <v>0.1849313376655815</v>
       </c>
       <c r="F10">
-        <v>1.082778273622708</v>
+        <v>1.404361389032047</v>
       </c>
       <c r="G10">
-        <v>0.0007823571314054079</v>
+        <v>0.002441596403276099</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1489304842232331</v>
+        <v>0.4312878458171641</v>
       </c>
       <c r="J10">
-        <v>0.2769563398600354</v>
+        <v>0.2050420075412802</v>
       </c>
       <c r="K10">
-        <v>3.335638691109637</v>
+        <v>1.141705824701091</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6554206469560455</v>
+        <v>1.329121076966686</v>
       </c>
       <c r="O10">
-        <v>2.283181912337596</v>
+        <v>3.298100095617883</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4162497865167438</v>
+        <v>0.1396556875444617</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3014318242341574</v>
+        <v>0.2205715622228723</v>
       </c>
       <c r="E11">
-        <v>0.2630822824367485</v>
+        <v>0.1886845061943916</v>
       </c>
       <c r="F11">
-        <v>1.137452477881638</v>
+        <v>1.410896580350737</v>
       </c>
       <c r="G11">
-        <v>0.0007792935864185063</v>
+        <v>0.002439735686347182</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1413200622243469</v>
+        <v>0.4271452282810992</v>
       </c>
       <c r="J11">
-        <v>0.2958050174059821</v>
+        <v>0.2090746770264929</v>
       </c>
       <c r="K11">
-        <v>3.578976298618159</v>
+        <v>1.212160241518689</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6380035592405804</v>
+        <v>1.321211679004819</v>
       </c>
       <c r="O11">
-        <v>2.385488882118608</v>
+        <v>3.304991988469538</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.426738924739908</v>
+        <v>0.1429415300560066</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3086861805490315</v>
+        <v>0.2223187176825121</v>
       </c>
       <c r="E12">
-        <v>0.2694506793772788</v>
+        <v>0.1901184456545835</v>
       </c>
       <c r="F12">
-        <v>1.158548103137946</v>
+        <v>1.413489226959115</v>
       </c>
       <c r="G12">
-        <v>0.0007781434971337642</v>
+        <v>0.002439044592226013</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1385158748019801</v>
+        <v>0.4256100650264969</v>
       </c>
       <c r="J12">
-        <v>0.3030148789347038</v>
+        <v>0.2106180570014118</v>
       </c>
       <c r="K12">
-        <v>3.671383142036348</v>
+        <v>1.238841648763696</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6315898877858643</v>
+        <v>1.318288997887521</v>
       </c>
       <c r="O12">
-        <v>2.425205026586724</v>
+        <v>3.307893909993197</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4244795660193432</v>
+        <v>0.1422339332759321</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3071219178165308</v>
+        <v>0.2219419171554193</v>
       </c>
       <c r="E13">
-        <v>0.2680767567387008</v>
+        <v>0.1898090571097271</v>
       </c>
       <c r="F13">
-        <v>1.153986786036398</v>
+        <v>1.412925609440336</v>
       </c>
       <c r="G13">
-        <v>0.000778390753880363</v>
+        <v>0.002439192831447719</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1391162936001011</v>
+        <v>0.4259391972199484</v>
       </c>
       <c r="J13">
-        <v>0.3014587641247601</v>
+        <v>0.2102849378114087</v>
       </c>
       <c r="K13">
-        <v>3.651469373560303</v>
+        <v>1.233095267151953</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6329629613821055</v>
+        <v>1.318915228457506</v>
       </c>
       <c r="O13">
-        <v>2.416606686303794</v>
+        <v>3.307255932293401</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4171125861218883</v>
+        <v>0.1399260461722633</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3020277917513425</v>
+        <v>0.2207150675899072</v>
       </c>
       <c r="E14">
-        <v>0.2636051526508325</v>
+        <v>0.1888022230374062</v>
       </c>
       <c r="F14">
-        <v>1.139179971103687</v>
+        <v>1.411107515632438</v>
       </c>
       <c r="G14">
-        <v>0.0007791987707821413</v>
+        <v>0.002439678559052655</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1410877821613568</v>
+        <v>0.4270182568667771</v>
       </c>
       <c r="J14">
-        <v>0.2963966827956312</v>
+        <v>0.209201325256771</v>
       </c>
       <c r="K14">
-        <v>3.586573189435967</v>
+        <v>1.214355306754612</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6374722089851375</v>
+        <v>1.320969776727843</v>
       </c>
       <c r="O14">
-        <v>2.388736314167005</v>
+        <v>3.305224875067324</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4126010455490245</v>
+        <v>0.1385122030220742</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.298912998665358</v>
+        <v>0.2199651091213894</v>
       </c>
       <c r="E15">
-        <v>0.260873021350136</v>
+        <v>0.1881871603122249</v>
       </c>
       <c r="F15">
-        <v>1.130162445253148</v>
+        <v>1.410009237236579</v>
       </c>
       <c r="G15">
-        <v>0.0007796949901721639</v>
+        <v>0.002439977839821776</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1423056017705315</v>
+        <v>0.4276835825453658</v>
       </c>
       <c r="J15">
-        <v>0.2933056604205859</v>
+        <v>0.2085397033468723</v>
       </c>
       <c r="K15">
-        <v>3.546857634866683</v>
+        <v>1.202876745141566</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6402581879322611</v>
+        <v>1.322237679227321</v>
       </c>
       <c r="O15">
-        <v>2.371794446901987</v>
+        <v>3.304018845160527</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3867602832904851</v>
+        <v>0.1304072178486706</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2811443851806104</v>
+        <v>0.215690804700742</v>
       </c>
       <c r="E16">
-        <v>0.2453171630600579</v>
+        <v>0.1846878380545931</v>
       </c>
       <c r="F16">
-        <v>1.079258064396697</v>
+        <v>1.403950797076845</v>
       </c>
       <c r="G16">
-        <v>0.0007825587739925255</v>
+        <v>0.002441719900906392</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1494385267811866</v>
+        <v>0.4315632704027053</v>
       </c>
       <c r="J16">
-        <v>0.2757342205971014</v>
+        <v>0.2047807436070457</v>
       </c>
       <c r="K16">
-        <v>3.319769969246749</v>
+        <v>1.137101786731307</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6565838654241105</v>
+        <v>1.32964811294471</v>
       </c>
       <c r="O16">
-        <v>2.276627588554049</v>
+        <v>3.297690553014746</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3709179037925168</v>
+        <v>0.1254327469898868</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2703126139944345</v>
+        <v>0.2130896191674481</v>
       </c>
       <c r="E17">
-        <v>0.2358597331469667</v>
+        <v>0.1825637727568861</v>
       </c>
       <c r="F17">
-        <v>1.048689909673826</v>
+        <v>1.40044411959623</v>
       </c>
       <c r="G17">
-        <v>0.0007843340652409479</v>
+        <v>0.002442812746099368</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1539490303496418</v>
+        <v>0.4340030832179638</v>
       </c>
       <c r="J17">
-        <v>0.2650751189115539</v>
+        <v>0.202503771398483</v>
       </c>
       <c r="K17">
-        <v>3.180874916693313</v>
+        <v>1.096755553217463</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6669137987735212</v>
+        <v>1.334323228336821</v>
       </c>
       <c r="O17">
-        <v>2.219890038905362</v>
+        <v>3.294328285971602</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3618088934368586</v>
+        <v>0.1225707850047115</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2641063295970554</v>
+        <v>0.2116012201992845</v>
       </c>
       <c r="E18">
-        <v>0.2304498137859952</v>
+        <v>0.1813504051300612</v>
       </c>
       <c r="F18">
-        <v>1.031339564865007</v>
+        <v>1.398504327330343</v>
       </c>
       <c r="G18">
-        <v>0.0007853621292065443</v>
+        <v>0.002443450215865</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1565917561995658</v>
+        <v>0.4354283516424076</v>
       </c>
       <c r="J18">
-        <v>0.258986121781092</v>
+        <v>0.2012047858253965</v>
       </c>
       <c r="K18">
-        <v>3.101125254958646</v>
+        <v>1.073551532145927</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6729682714304488</v>
+        <v>1.337059669440805</v>
       </c>
       <c r="O18">
-        <v>2.187833712738097</v>
+        <v>3.292585367656358</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.358725217149356</v>
+        <v>0.1216016475052015</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.262008959416292</v>
+        <v>0.2110986051467165</v>
       </c>
       <c r="E19">
-        <v>0.2286230590592524</v>
+        <v>0.1809410130574207</v>
       </c>
       <c r="F19">
-        <v>1.025503815437347</v>
+        <v>1.397860797571383</v>
       </c>
       <c r="G19">
-        <v>0.0007857114267989106</v>
+        <v>0.002443667581945285</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1574947495444867</v>
+        <v>0.4359146929251967</v>
       </c>
       <c r="J19">
-        <v>0.2569314548678676</v>
+        <v>0.2007668040648412</v>
       </c>
       <c r="K19">
-        <v>3.074146016812875</v>
+        <v>1.065695440545113</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6750373671261443</v>
+        <v>1.33799433008307</v>
       </c>
       <c r="O19">
-        <v>2.177076739116757</v>
+        <v>3.292028034524208</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.372604017237208</v>
+        <v>0.1259623701418917</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2714631741621787</v>
+        <v>0.2133657200463261</v>
       </c>
       <c r="E20">
-        <v>0.2368633765639458</v>
+        <v>0.1827890204116329</v>
       </c>
       <c r="F20">
-        <v>1.051919726048027</v>
+        <v>1.400809425810621</v>
       </c>
       <c r="G20">
-        <v>0.0007841443658344305</v>
+        <v>0.002442695490573617</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1534638456947617</v>
+        <v>0.4337410888453048</v>
       </c>
       <c r="J20">
-        <v>0.2662054153025224</v>
+        <v>0.2027450548379335</v>
       </c>
       <c r="K20">
-        <v>3.195645833206925</v>
+        <v>1.101050273575709</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6658024088451313</v>
+        <v>1.333820644887986</v>
       </c>
       <c r="O20">
-        <v>2.225869478815099</v>
+        <v>3.294666438098119</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4192762457072234</v>
+        <v>0.1406039697581889</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3035229043204453</v>
+        <v>0.2210751059693479</v>
       </c>
       <c r="E21">
-        <v>0.2649171323167252</v>
+        <v>0.1890976103611663</v>
       </c>
       <c r="F21">
-        <v>1.143518173856933</v>
+        <v>1.411638333502097</v>
       </c>
       <c r="G21">
-        <v>0.0007789611697145586</v>
+        <v>0.002439535522693922</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.140506570699813</v>
+        <v>0.4267004000564043</v>
       </c>
       <c r="J21">
-        <v>0.2978815135934525</v>
+        <v>0.2095191662997848</v>
       </c>
       <c r="K21">
-        <v>3.605627346847427</v>
+        <v>1.219859646750876</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6361427299449929</v>
+        <v>1.320364340460152</v>
       </c>
       <c r="O21">
-        <v>2.396895362809516</v>
+        <v>3.305813515365713</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4498200040175675</v>
+        <v>0.1501645499654103</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.324718460235033</v>
+        <v>0.2261818533023501</v>
       </c>
       <c r="E22">
-        <v>0.2835540437467685</v>
+        <v>0.193294622061515</v>
       </c>
       <c r="F22">
-        <v>1.205684033792821</v>
+        <v>1.4194029447509</v>
       </c>
       <c r="G22">
-        <v>0.0007756316941170797</v>
+        <v>0.002437549071148534</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1324929567014639</v>
+        <v>0.4222945013282091</v>
       </c>
       <c r="J22">
-        <v>0.3190089283300637</v>
+        <v>0.2140414211587682</v>
       </c>
       <c r="K22">
-        <v>3.875113282511904</v>
+        <v>1.297518660991784</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6178223945876624</v>
+        <v>1.311992067604841</v>
       </c>
       <c r="O22">
-        <v>2.514395796451822</v>
+        <v>3.314801576033204</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.433513835723744</v>
+        <v>0.1450627493927215</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3133822612271047</v>
+        <v>0.2234500758515736</v>
       </c>
       <c r="E23">
-        <v>0.2735776354730461</v>
+        <v>0.1910478415527948</v>
       </c>
       <c r="F23">
-        <v>1.172282335694661</v>
+        <v>1.415195926990776</v>
       </c>
       <c r="G23">
-        <v>0.000777403587160115</v>
+        <v>0.002438602091150168</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1367271805965942</v>
+        <v>0.4246281096333639</v>
       </c>
       <c r="J23">
-        <v>0.3076912452336416</v>
+        <v>0.2116191188985255</v>
       </c>
       <c r="K23">
-        <v>3.731127412339106</v>
+        <v>1.25607004361882</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6275000276531557</v>
+        <v>1.316421886516075</v>
       </c>
       <c r="O23">
-        <v>2.451130276904678</v>
+        <v>3.309848563552208</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.371841728653024</v>
+        <v>0.1257229339519341</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2709429406850745</v>
+        <v>0.2132408728502071</v>
       </c>
       <c r="E24">
-        <v>0.2364095447968424</v>
+        <v>0.1826871616929111</v>
       </c>
       <c r="F24">
-        <v>1.050458831877521</v>
+        <v>1.400644033378001</v>
       </c>
       <c r="G24">
-        <v>0.0007842301057297208</v>
+        <v>0.002442748473177736</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1536830435127188</v>
+        <v>0.4338594661441375</v>
       </c>
       <c r="J24">
-        <v>0.2656942872019243</v>
+        <v>0.202635939210424</v>
       </c>
       <c r="K24">
-        <v>3.188967584406555</v>
+        <v>1.099108656681892</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6663045086168182</v>
+        <v>1.334047711303384</v>
       </c>
       <c r="O24">
-        <v>2.223164427166211</v>
+        <v>3.294512967406206</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3054303710741948</v>
+        <v>0.1048329617678831</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2260625132734191</v>
+        <v>0.2025246271421963</v>
       </c>
       <c r="E25">
-        <v>0.1974363489479529</v>
+        <v>0.1739877333445179</v>
       </c>
       <c r="F25">
-        <v>0.9277905188652511</v>
+        <v>1.387897032500604</v>
       </c>
       <c r="G25">
-        <v>0.0007918618528904159</v>
+        <v>0.002447561343438931</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1738109834651631</v>
+        <v>0.4446562272943479</v>
       </c>
       <c r="J25">
-        <v>0.2219671213158847</v>
+        <v>0.193353974387378</v>
       </c>
       <c r="K25">
-        <v>2.609330805379358</v>
+        <v>0.9298835799406504</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7124510762287741</v>
+        <v>1.354873888667662</v>
       </c>
       <c r="O25">
-        <v>1.999061113757818</v>
+        <v>3.285270634156518</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08943201502788156</v>
+        <v>0.2565529064126366</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1948903110990585</v>
+        <v>0.1936350463689109</v>
       </c>
       <c r="E2">
-        <v>0.1678563450209651</v>
+        <v>0.1695156020315807</v>
       </c>
       <c r="F2">
-        <v>1.381042796064705</v>
+        <v>0.8438117040145556</v>
       </c>
       <c r="G2">
-        <v>0.002451400755762983</v>
+        <v>0.0007977322686234352</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4533284278391356</v>
+        <v>0.1900971016789681</v>
       </c>
       <c r="J2">
-        <v>0.186868640309811</v>
+        <v>0.1908623227873179</v>
       </c>
       <c r="K2">
-        <v>0.8053691607786959</v>
+        <v>2.185458273677767</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.371772158472872</v>
+        <v>0.7498400023762386</v>
       </c>
       <c r="O2">
-        <v>3.284725044647814</v>
+        <v>1.849947729373753</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07898517216182199</v>
+        <v>0.2234072222790928</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1898770388727229</v>
+        <v>0.1719743266583436</v>
       </c>
       <c r="E3">
-        <v>0.1638719165803231</v>
+        <v>0.1509922455025112</v>
       </c>
       <c r="F3">
-        <v>1.377974351892817</v>
+        <v>0.7903217258210304</v>
       </c>
       <c r="G3">
-        <v>0.002454188753360244</v>
+        <v>0.000801876812992998</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4596567733388368</v>
+        <v>0.2019950435573148</v>
       </c>
       <c r="J3">
-        <v>0.1826903552363603</v>
+        <v>0.1703446463262992</v>
       </c>
       <c r="K3">
-        <v>0.7210469065795735</v>
+        <v>1.899326133352275</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.384201999929516</v>
+        <v>0.7771790353971468</v>
       </c>
       <c r="O3">
-        <v>3.288251460566727</v>
+        <v>1.757512921875161</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07256721165369129</v>
+        <v>0.2030352973248455</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1868784677719333</v>
+        <v>0.1588092116851385</v>
       </c>
       <c r="E4">
-        <v>0.1615098194224771</v>
+        <v>0.139789880443324</v>
       </c>
       <c r="F4">
-        <v>1.376867550056232</v>
+        <v>0.7590050644254447</v>
       </c>
       <c r="G4">
-        <v>0.002455992836384807</v>
+        <v>0.0008045064039510146</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4637650084354483</v>
+        <v>0.2097080374227529</v>
       </c>
       <c r="J4">
-        <v>0.180231683285065</v>
+        <v>0.1579881782882069</v>
       </c>
       <c r="K4">
-        <v>0.6693078323392854</v>
+        <v>1.723993195118709</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.39231691949788</v>
+        <v>0.7949123541268861</v>
       </c>
       <c r="O4">
-        <v>3.292336158825208</v>
+        <v>1.704615723728267</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06995116669473589</v>
+        <v>0.194727211262375</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1856766324671355</v>
+        <v>0.1534753233223114</v>
       </c>
       <c r="E5">
-        <v>0.1605684965687466</v>
+        <v>0.1352643192889218</v>
       </c>
       <c r="F5">
-        <v>1.376611969870353</v>
+        <v>0.7466045753184503</v>
       </c>
       <c r="G5">
-        <v>0.002456751279359963</v>
+        <v>0.0008055997127715292</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.465495125160539</v>
+        <v>0.2129511880542232</v>
       </c>
       <c r="J5">
-        <v>0.1792566179308821</v>
+        <v>0.1530085895807147</v>
       </c>
       <c r="K5">
-        <v>0.6482336586487349</v>
+        <v>1.652605281445318</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.395745341284627</v>
+        <v>0.8023713028899238</v>
       </c>
       <c r="O5">
-        <v>3.294483170535614</v>
+        <v>1.683974952510994</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06951674020773169</v>
+        <v>0.1933472407897199</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1854782857132449</v>
+        <v>0.1525914270846727</v>
       </c>
       <c r="E6">
-        <v>0.160413475263951</v>
+        <v>0.1345151392752761</v>
       </c>
       <c r="F6">
-        <v>1.376581335997194</v>
+        <v>0.7445666690105384</v>
       </c>
       <c r="G6">
-        <v>0.002456878625644036</v>
+        <v>0.0008057825795244717</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4657857906824976</v>
+        <v>0.2134956830535244</v>
       </c>
       <c r="J6">
-        <v>0.1790963317034837</v>
+        <v>0.1521849615337771</v>
       </c>
       <c r="K6">
-        <v>0.6447349392554713</v>
+        <v>1.640754335801404</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.396321970554201</v>
+        <v>0.8036237362845782</v>
       </c>
       <c r="O6">
-        <v>3.294868814036789</v>
+        <v>1.680601296687712</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07253193319225204</v>
+        <v>0.2029232789186466</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1868621778680506</v>
+        <v>0.1587371551379562</v>
       </c>
       <c r="E7">
-        <v>0.1614970383176946</v>
+        <v>0.1397286917507081</v>
       </c>
       <c r="F7">
-        <v>1.376863311831244</v>
+        <v>0.7588363931015323</v>
       </c>
       <c r="G7">
-        <v>0.002456002970823023</v>
+        <v>0.0008045210602804218</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4637881147411056</v>
+        <v>0.209751373790485</v>
       </c>
       <c r="J7">
-        <v>0.18021842443693</v>
+        <v>0.1579208023407261</v>
       </c>
       <c r="K7">
-        <v>0.6690235770620347</v>
+        <v>1.723030217707674</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.392362664224265</v>
+        <v>0.7950120141062413</v>
       </c>
       <c r="O7">
-        <v>3.292363160969984</v>
+        <v>1.704333719672434</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08583081072562493</v>
+        <v>0.2451277124208531</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1931452669322624</v>
+        <v>0.1861367092326986</v>
       </c>
       <c r="E8">
-        <v>0.1664650270109362</v>
+        <v>0.1630910658975253</v>
       </c>
       <c r="F8">
-        <v>1.37982348125901</v>
+        <v>0.8250376185522867</v>
       </c>
       <c r="G8">
-        <v>0.002452342954775938</v>
+        <v>0.0007991439486477942</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4554642412873857</v>
+        <v>0.1941134102330384</v>
       </c>
       <c r="J8">
-        <v>0.1854057998214103</v>
+        <v>0.1837346455553401</v>
       </c>
       <c r="K8">
-        <v>0.7762881807904591</v>
+        <v>2.086709614190596</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.375957783609682</v>
+        <v>0.7590664532690639</v>
       </c>
       <c r="O8">
-        <v>3.285542437972993</v>
+        <v>1.81724148835815</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1118732146061205</v>
+        <v>0.3277931164390537</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2060947520767797</v>
+        <v>0.2410748113002654</v>
       </c>
       <c r="E9">
-        <v>0.1768755827011432</v>
+        <v>0.2104322537006524</v>
       </c>
       <c r="F9">
-        <v>1.391797336870354</v>
+        <v>0.968051797929931</v>
       </c>
       <c r="G9">
-        <v>0.002445894385233122</v>
+        <v>0.0007892533766766054</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4409071224823267</v>
+        <v>0.1667956906880779</v>
       </c>
       <c r="J9">
-        <v>0.1964263054521638</v>
+        <v>0.2365105305186717</v>
       </c>
       <c r="K9">
-        <v>0.9868751866924583</v>
+        <v>2.804033227253882</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.347615867606414</v>
+        <v>0.6963587765080561</v>
       </c>
       <c r="O9">
-        <v>3.287410407507537</v>
+        <v>2.071900457757124</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1309747286336034</v>
+        <v>0.3885684731441046</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2159886638439872</v>
+        <v>0.2823836982111487</v>
       </c>
       <c r="E10">
-        <v>0.1849313376655815</v>
+        <v>0.2464004742849681</v>
       </c>
       <c r="F10">
-        <v>1.404361389032047</v>
+        <v>1.082778273622694</v>
       </c>
       <c r="G10">
-        <v>0.002441596403276099</v>
+        <v>0.0007823571314060096</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4312878458171641</v>
+        <v>0.1489304842232482</v>
       </c>
       <c r="J10">
-        <v>0.2050420075412802</v>
+        <v>0.2769563398600496</v>
       </c>
       <c r="K10">
-        <v>1.141705824701091</v>
+        <v>3.33563869110975</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.329121076966686</v>
+        <v>0.6554206469560526</v>
       </c>
       <c r="O10">
-        <v>3.298100095617883</v>
+        <v>2.283181912337625</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1396556875444617</v>
+        <v>0.4162497865168433</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2205715622228723</v>
+        <v>0.3014318242341716</v>
       </c>
       <c r="E11">
-        <v>0.1886845061943916</v>
+        <v>0.2630822824367414</v>
       </c>
       <c r="F11">
-        <v>1.410896580350737</v>
+        <v>1.137452477881638</v>
       </c>
       <c r="G11">
-        <v>0.002439735686347182</v>
+        <v>0.0007792935864475677</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4271452282810992</v>
+        <v>0.1413200622243469</v>
       </c>
       <c r="J11">
-        <v>0.2090746770264929</v>
+        <v>0.2958050174059821</v>
       </c>
       <c r="K11">
-        <v>1.212160241518689</v>
+        <v>3.578976298617931</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.321211679004819</v>
+        <v>0.6380035592405733</v>
       </c>
       <c r="O11">
-        <v>3.304991988469538</v>
+        <v>2.385488882118523</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1429415300560066</v>
+        <v>0.4267389247397944</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2223187176825121</v>
+        <v>0.3086861805490884</v>
       </c>
       <c r="E12">
-        <v>0.1901184456545835</v>
+        <v>0.2694506793772788</v>
       </c>
       <c r="F12">
-        <v>1.413489226959115</v>
+        <v>1.158548103137932</v>
       </c>
       <c r="G12">
-        <v>0.002439044592226013</v>
+        <v>0.0007781434971357304</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4256100650264969</v>
+        <v>0.1385158748019801</v>
       </c>
       <c r="J12">
-        <v>0.2106180570014118</v>
+        <v>0.3030148789346896</v>
       </c>
       <c r="K12">
-        <v>1.238841648763696</v>
+        <v>3.671383142036348</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.318288997887521</v>
+        <v>0.6315898877858572</v>
       </c>
       <c r="O12">
-        <v>3.307893909993197</v>
+        <v>2.425205026586724</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1422339332759321</v>
+        <v>0.424479566019329</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2219419171554193</v>
+        <v>0.3071219178167013</v>
       </c>
       <c r="E13">
-        <v>0.1898090571097271</v>
+        <v>0.2680767567387079</v>
       </c>
       <c r="F13">
-        <v>1.412925609440336</v>
+        <v>1.153986786036384</v>
       </c>
       <c r="G13">
-        <v>0.002439192831447719</v>
+        <v>0.0007783907538518858</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4259391972199484</v>
+        <v>0.1391162936001136</v>
       </c>
       <c r="J13">
-        <v>0.2102849378114087</v>
+        <v>0.3014587641247601</v>
       </c>
       <c r="K13">
-        <v>1.233095267151953</v>
+        <v>3.651469373560303</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.318915228457506</v>
+        <v>0.6329629613821055</v>
       </c>
       <c r="O13">
-        <v>3.307255932293401</v>
+        <v>2.416606686303794</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1399260461722633</v>
+        <v>0.4171125861217888</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2207150675899072</v>
+        <v>0.3020277917513994</v>
       </c>
       <c r="E14">
-        <v>0.1888022230374062</v>
+        <v>0.2636051526508254</v>
       </c>
       <c r="F14">
-        <v>1.411107515632438</v>
+        <v>1.139179971103687</v>
       </c>
       <c r="G14">
-        <v>0.002439678559052655</v>
+        <v>0.0007791987707522563</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4270182568667771</v>
+        <v>0.1410877821613399</v>
       </c>
       <c r="J14">
-        <v>0.209201325256771</v>
+        <v>0.2963966827955886</v>
       </c>
       <c r="K14">
-        <v>1.214355306754612</v>
+        <v>3.586573189435967</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.320969776727843</v>
+        <v>0.6374722089851375</v>
       </c>
       <c r="O14">
-        <v>3.305224875067324</v>
+        <v>2.388736314167005</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1385122030220742</v>
+        <v>0.412601045549124</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2199651091213894</v>
+        <v>0.2989129986654717</v>
       </c>
       <c r="E15">
-        <v>0.1881871603122249</v>
+        <v>0.2608730213501147</v>
       </c>
       <c r="F15">
-        <v>1.410009237236579</v>
+        <v>1.130162445253106</v>
       </c>
       <c r="G15">
-        <v>0.002439977839821776</v>
+        <v>0.0007796949900855059</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4276835825453658</v>
+        <v>0.1423056017705315</v>
       </c>
       <c r="J15">
-        <v>0.2085397033468723</v>
+        <v>0.2933056604206286</v>
       </c>
       <c r="K15">
-        <v>1.202876745141566</v>
+        <v>3.546857634866683</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.322237679227321</v>
+        <v>0.6402581879322469</v>
       </c>
       <c r="O15">
-        <v>3.304018845160527</v>
+        <v>2.371794446901959</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1304072178486706</v>
+        <v>0.3867602832905135</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.215690804700742</v>
+        <v>0.2811443851807098</v>
       </c>
       <c r="E16">
-        <v>0.1846878380545931</v>
+        <v>0.2453171630600508</v>
       </c>
       <c r="F16">
-        <v>1.403950797076845</v>
+        <v>1.079258064396697</v>
       </c>
       <c r="G16">
-        <v>0.002441719900906392</v>
+        <v>0.0007825587739930947</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4315632704027053</v>
+        <v>0.1494385267811866</v>
       </c>
       <c r="J16">
-        <v>0.2047807436070457</v>
+        <v>0.2757342205971156</v>
       </c>
       <c r="K16">
-        <v>1.137101786731307</v>
+        <v>3.319769969246579</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.32964811294471</v>
+        <v>0.6565838654241745</v>
       </c>
       <c r="O16">
-        <v>3.297690553014746</v>
+        <v>2.276627588554049</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1254327469898868</v>
+        <v>0.3709179037925026</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2130896191674481</v>
+        <v>0.2703126139944629</v>
       </c>
       <c r="E17">
-        <v>0.1825637727568861</v>
+        <v>0.2358597331469667</v>
       </c>
       <c r="F17">
-        <v>1.40044411959623</v>
+        <v>1.048689909673797</v>
       </c>
       <c r="G17">
-        <v>0.002442812746099368</v>
+        <v>0.0007843340652985797</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4340030832179638</v>
+        <v>0.1539490303496258</v>
       </c>
       <c r="J17">
-        <v>0.202503771398483</v>
+        <v>0.2650751189115823</v>
       </c>
       <c r="K17">
-        <v>1.096755553217463</v>
+        <v>3.180874916693369</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.334323228336821</v>
+        <v>0.666913798773507</v>
       </c>
       <c r="O17">
-        <v>3.294328285971602</v>
+        <v>2.219890038905362</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1225707850047115</v>
+        <v>0.3618088934370007</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2116012201992845</v>
+        <v>0.2641063295969559</v>
       </c>
       <c r="E18">
-        <v>0.1813504051300612</v>
+        <v>0.2304498137859952</v>
       </c>
       <c r="F18">
-        <v>1.398504327330343</v>
+        <v>1.031339564865007</v>
       </c>
       <c r="G18">
-        <v>0.002443450215865</v>
+        <v>0.0007853621291499782</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4354283516424076</v>
+        <v>0.1565917561995631</v>
       </c>
       <c r="J18">
-        <v>0.2012047858253965</v>
+        <v>0.2589861217810778</v>
       </c>
       <c r="K18">
-        <v>1.073551532145927</v>
+        <v>3.101125254958561</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.337059669440805</v>
+        <v>0.6729682714303848</v>
       </c>
       <c r="O18">
-        <v>3.292585367656358</v>
+        <v>2.187833712737984</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1216016475052015</v>
+        <v>0.3587252171493418</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2110986051467165</v>
+        <v>0.262008959416292</v>
       </c>
       <c r="E19">
-        <v>0.1809410130574207</v>
+        <v>0.2286230590592311</v>
       </c>
       <c r="F19">
-        <v>1.397860797571383</v>
+        <v>1.025503815437347</v>
       </c>
       <c r="G19">
-        <v>0.002443667581945285</v>
+        <v>0.000785711426770197</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4359146929251967</v>
+        <v>0.1574947495444867</v>
       </c>
       <c r="J19">
-        <v>0.2007668040648412</v>
+        <v>0.2569314548679529</v>
       </c>
       <c r="K19">
-        <v>1.065695440545113</v>
+        <v>3.074146016812847</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.33799433008307</v>
+        <v>0.675037367126194</v>
       </c>
       <c r="O19">
-        <v>3.292028034524208</v>
+        <v>2.177076739116728</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1259623701418917</v>
+        <v>0.3726040172373217</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2133657200463261</v>
+        <v>0.2714631741621361</v>
       </c>
       <c r="E20">
-        <v>0.1827890204116329</v>
+        <v>0.2368633765639387</v>
       </c>
       <c r="F20">
-        <v>1.400809425810621</v>
+        <v>1.051919726048027</v>
       </c>
       <c r="G20">
-        <v>0.002442695490573617</v>
+        <v>0.0007841443657779352</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4337410888453048</v>
+        <v>0.1534638456947599</v>
       </c>
       <c r="J20">
-        <v>0.2027450548379335</v>
+        <v>0.2662054153026077</v>
       </c>
       <c r="K20">
-        <v>1.101050273575709</v>
+        <v>3.195645833207038</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.333820644887986</v>
+        <v>0.6658024088451313</v>
       </c>
       <c r="O20">
-        <v>3.294666438098119</v>
+        <v>2.225869478815127</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1406039697581889</v>
+        <v>0.4192762457071098</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2210751059693479</v>
+        <v>0.3035229043203458</v>
       </c>
       <c r="E21">
-        <v>0.1890976103611663</v>
+        <v>0.2649171323167465</v>
       </c>
       <c r="F21">
-        <v>1.411638333502097</v>
+        <v>1.143518173856918</v>
       </c>
       <c r="G21">
-        <v>0.002439535522693922</v>
+        <v>0.0007789611697450827</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4267004000564043</v>
+        <v>0.1405065706998068</v>
       </c>
       <c r="J21">
-        <v>0.2095191662997848</v>
+        <v>0.2978815135935236</v>
       </c>
       <c r="K21">
-        <v>1.219859646750876</v>
+        <v>3.605627346847371</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.320364340460152</v>
+        <v>0.6361427299449787</v>
       </c>
       <c r="O21">
-        <v>3.305813515365713</v>
+        <v>2.396895362809516</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1501645499654103</v>
+        <v>0.4498200040174538</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2261818533023501</v>
+        <v>0.324718460235033</v>
       </c>
       <c r="E22">
-        <v>0.193294622061515</v>
+        <v>0.2835540437467543</v>
       </c>
       <c r="F22">
-        <v>1.4194029447509</v>
+        <v>1.205684033792821</v>
       </c>
       <c r="G22">
-        <v>0.002437549071148534</v>
+        <v>0.0007756316940850483</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4222945013282091</v>
+        <v>0.132492956701479</v>
       </c>
       <c r="J22">
-        <v>0.2140414211587682</v>
+        <v>0.3190089283300495</v>
       </c>
       <c r="K22">
-        <v>1.297518660991784</v>
+        <v>3.875113282512018</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.311992067604841</v>
+        <v>0.6178223945876553</v>
       </c>
       <c r="O22">
-        <v>3.314801576033204</v>
+        <v>2.514395796451765</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1450627493927215</v>
+        <v>0.4335138357238577</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2234500758515736</v>
+        <v>0.3133822612271615</v>
       </c>
       <c r="E23">
-        <v>0.1910478415527948</v>
+        <v>0.2735776354730888</v>
       </c>
       <c r="F23">
-        <v>1.415195926990776</v>
+        <v>1.172282335694646</v>
       </c>
       <c r="G23">
-        <v>0.002438602091150168</v>
+        <v>0.0007774035871607293</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4246281096333639</v>
+        <v>0.1367271805965942</v>
       </c>
       <c r="J23">
-        <v>0.2116191188985255</v>
+        <v>0.3076912452336842</v>
       </c>
       <c r="K23">
-        <v>1.25607004361882</v>
+        <v>3.731127412338992</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.316421886516075</v>
+        <v>0.6275000276530989</v>
       </c>
       <c r="O23">
-        <v>3.309848563552208</v>
+        <v>2.451130276904593</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1257229339519341</v>
+        <v>0.3718417286530382</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2132408728502071</v>
+        <v>0.270942940684975</v>
       </c>
       <c r="E24">
-        <v>0.1826871616929111</v>
+        <v>0.2364095447968211</v>
       </c>
       <c r="F24">
-        <v>1.400644033378001</v>
+        <v>1.050458831877492</v>
       </c>
       <c r="G24">
-        <v>0.002442748473177736</v>
+        <v>0.0007842301057877747</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4338594661441375</v>
+        <v>0.1536830435127019</v>
       </c>
       <c r="J24">
-        <v>0.202635939210424</v>
+        <v>0.2656942872020238</v>
       </c>
       <c r="K24">
-        <v>1.099108656681892</v>
+        <v>3.188967584406612</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.334047711303384</v>
+        <v>0.6663045086167969</v>
       </c>
       <c r="O24">
-        <v>3.294512967406206</v>
+        <v>2.223164427166211</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1048329617678831</v>
+        <v>0.3054303710740811</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2025246271421963</v>
+        <v>0.2260625132734759</v>
       </c>
       <c r="E25">
-        <v>0.1739877333445179</v>
+        <v>0.1974363489479671</v>
       </c>
       <c r="F25">
-        <v>1.387897032500604</v>
+        <v>0.9277905188652369</v>
       </c>
       <c r="G25">
-        <v>0.002447561343438931</v>
+        <v>0.0007918618528908739</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4446562272943479</v>
+        <v>0.1738109834651471</v>
       </c>
       <c r="J25">
-        <v>0.193353974387378</v>
+        <v>0.2219671213158705</v>
       </c>
       <c r="K25">
-        <v>0.9298835799406504</v>
+        <v>2.609330805379273</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.354873888667662</v>
+        <v>0.712451076228767</v>
       </c>
       <c r="O25">
-        <v>3.285270634156518</v>
+        <v>1.999061113757705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2565529064126366</v>
+        <v>0.1818193872554588</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1936350463689109</v>
+        <v>0.0764388591059344</v>
       </c>
       <c r="E2">
-        <v>0.1695156020315807</v>
+        <v>0.08289077842942305</v>
       </c>
       <c r="F2">
-        <v>0.8438117040145556</v>
+        <v>1.237763486733243</v>
       </c>
       <c r="G2">
-        <v>0.0007977322686234352</v>
+        <v>0.9427093576550334</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.001444520222503076</v>
       </c>
       <c r="I2">
-        <v>0.1900971016789681</v>
+        <v>0.006936516805150283</v>
       </c>
       <c r="J2">
-        <v>0.1908623227873179</v>
+        <v>0.6315389775741806</v>
       </c>
       <c r="K2">
-        <v>2.185458273677767</v>
+        <v>0.3356367880750337</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1101489939265932</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.18025682703805</v>
       </c>
       <c r="N2">
-        <v>0.7498400023762386</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.849947729373753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5430683869287876</v>
+      </c>
+      <c r="P2">
+        <v>0.9827448344829959</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2234072222790928</v>
+        <v>0.158109299728153</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1719743266583436</v>
+        <v>0.06837760943019333</v>
       </c>
       <c r="E3">
-        <v>0.1509922455025112</v>
+        <v>0.07491135122987913</v>
       </c>
       <c r="F3">
-        <v>0.7903217258210304</v>
+        <v>1.158988224668107</v>
       </c>
       <c r="G3">
-        <v>0.000801876812992998</v>
+        <v>0.8774659162530725</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.003027414131775541</v>
       </c>
       <c r="I3">
-        <v>0.2019950435573148</v>
+        <v>0.00832475456996562</v>
       </c>
       <c r="J3">
-        <v>0.1703446463262992</v>
+        <v>0.6061846924429659</v>
       </c>
       <c r="K3">
-        <v>1.899326133352275</v>
+        <v>0.3416996157155783</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1000898351871911</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.894332670816198</v>
       </c>
       <c r="N3">
-        <v>0.7771790353971468</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.757512921875161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4743194491321958</v>
+      </c>
+      <c r="P3">
+        <v>1.017144487433709</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2030352973248455</v>
+        <v>0.1431945695362344</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1588092116851385</v>
+        <v>0.0634509298685586</v>
       </c>
       <c r="E4">
-        <v>0.139789880443324</v>
+        <v>0.07001247642729425</v>
       </c>
       <c r="F4">
-        <v>0.7590050644254447</v>
+        <v>1.111521691174417</v>
       </c>
       <c r="G4">
-        <v>0.0008045064039510146</v>
+        <v>0.8382662238659151</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004332760894829146</v>
       </c>
       <c r="I4">
-        <v>0.2097080374227529</v>
+        <v>0.009308772455245418</v>
       </c>
       <c r="J4">
-        <v>0.1579881782882069</v>
+        <v>0.591141618938579</v>
       </c>
       <c r="K4">
-        <v>1.723993195118709</v>
+        <v>0.3455088848289911</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.093894517366504</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.719782586053412</v>
       </c>
       <c r="N4">
-        <v>0.7949123541268861</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.704615723728267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4322948288649826</v>
+      </c>
+      <c r="P4">
+        <v>1.038822737795761</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.194727211262375</v>
+        <v>0.13626918014414</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1534753233223114</v>
+        <v>0.06148584151713266</v>
       </c>
       <c r="E5">
-        <v>0.1352643192889218</v>
+        <v>0.06801153907397151</v>
       </c>
       <c r="F5">
-        <v>0.7466045753184503</v>
+        <v>1.091794904384415</v>
       </c>
       <c r="G5">
-        <v>0.0008055997127715292</v>
+        <v>0.8218998413661467</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.004945304977103993</v>
       </c>
       <c r="I5">
-        <v>0.2129511880542232</v>
+        <v>0.009828112581513171</v>
       </c>
       <c r="J5">
-        <v>0.1530085895807147</v>
+        <v>0.5848305246474439</v>
       </c>
       <c r="K5">
-        <v>1.652605281445318</v>
+        <v>0.3467080499689175</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.09133027639478897</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.649977325323306</v>
       </c>
       <c r="N5">
-        <v>0.8023713028899238</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.683974952510994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4154283506872432</v>
+      </c>
+      <c r="P5">
+        <v>1.047506651948324</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1933472407897199</v>
+        <v>0.1341864508180777</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1525914270846727</v>
+        <v>0.06120618717697823</v>
       </c>
       <c r="E6">
-        <v>0.1345151392752761</v>
+        <v>0.06767506649015154</v>
       </c>
       <c r="F6">
-        <v>0.7445666690105384</v>
+        <v>1.087804973518686</v>
       </c>
       <c r="G6">
-        <v>0.0008057825795244717</v>
+        <v>0.8184700951823345</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.005052843596551004</v>
       </c>
       <c r="I6">
-        <v>0.2134956830535244</v>
+        <v>0.0100289402526812</v>
       </c>
       <c r="J6">
-        <v>0.1521849615337771</v>
+        <v>0.583416523181711</v>
       </c>
       <c r="K6">
-        <v>1.640754335801404</v>
+        <v>0.3464525298760943</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09086378304813181</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.639752740868516</v>
       </c>
       <c r="N6">
-        <v>0.8036237362845782</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.680601296687712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4128976433172866</v>
+      </c>
+      <c r="P6">
+        <v>1.048609217583275</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2029232789186466</v>
+        <v>0.1405548442589009</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1587371551379562</v>
+        <v>0.06355128021872503</v>
       </c>
       <c r="E7">
-        <v>0.1397286917507081</v>
+        <v>0.06997431526996323</v>
       </c>
       <c r="F7">
-        <v>0.7588363931015323</v>
+        <v>1.109272035236543</v>
       </c>
       <c r="G7">
-        <v>0.0008045210602804218</v>
+        <v>0.836069258301805</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004343477808350316</v>
       </c>
       <c r="I7">
-        <v>0.209751373790485</v>
+        <v>0.009607058631424081</v>
       </c>
       <c r="J7">
-        <v>0.1579208023407261</v>
+        <v>0.590037937301318</v>
       </c>
       <c r="K7">
-        <v>1.723030217707674</v>
+        <v>0.3442825742828024</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09374993744924609</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.722545466410168</v>
       </c>
       <c r="N7">
-        <v>0.7950120141062413</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.704333719672434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4327996900492082</v>
+      </c>
+      <c r="P7">
+        <v>1.038008004112746</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2451277124208531</v>
+        <v>0.1703116792787398</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1861367092326986</v>
+        <v>0.07382267214985916</v>
       </c>
       <c r="E8">
-        <v>0.1630910658975253</v>
+        <v>0.08012382896101045</v>
       </c>
       <c r="F8">
-        <v>0.8250376185522867</v>
+        <v>1.207787836215232</v>
       </c>
       <c r="G8">
-        <v>0.0007991439486477942</v>
+        <v>0.9174165148396582</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001920804809813603</v>
       </c>
       <c r="I8">
-        <v>0.1941134102330384</v>
+        <v>0.007739042354312886</v>
       </c>
       <c r="J8">
-        <v>0.1837346455553401</v>
+        <v>0.6213433228456751</v>
       </c>
       <c r="K8">
-        <v>2.086709614190596</v>
+        <v>0.3360881298563232</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1065372293445321</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.086372918646617</v>
       </c>
       <c r="N8">
-        <v>0.7590664532690639</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.81724148835815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5202958885602769</v>
+      </c>
+      <c r="P8">
+        <v>0.9933414717220597</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3277931164390537</v>
+        <v>0.2303495842810577</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2410748113002654</v>
+        <v>0.09397059207324077</v>
       </c>
       <c r="E9">
-        <v>0.2104322537006524</v>
+        <v>0.1001173697078031</v>
       </c>
       <c r="F9">
-        <v>0.968051797929931</v>
+        <v>1.412475662487694</v>
       </c>
       <c r="G9">
-        <v>0.0007892533766766054</v>
+        <v>1.088101566972043</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.041472366525298E-05</v>
       </c>
       <c r="I9">
-        <v>0.1667956906880779</v>
+        <v>0.004720257914117454</v>
       </c>
       <c r="J9">
-        <v>0.2365105305186717</v>
+        <v>0.6890726914012077</v>
       </c>
       <c r="K9">
-        <v>2.804033227253882</v>
+        <v>0.3229028909676366</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1317533142047864</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.802804186246192</v>
       </c>
       <c r="N9">
-        <v>0.6963587765080561</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.071900457757124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6923753550442768</v>
+      </c>
+      <c r="P9">
+        <v>0.9118480143504728</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3885684731441046</v>
+        <v>0.272740289256177</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2823836982111487</v>
+        <v>0.1063392156932537</v>
       </c>
       <c r="E10">
-        <v>0.2464004742849681</v>
+        <v>0.1103136231319937</v>
       </c>
       <c r="F10">
-        <v>1.082778273622694</v>
+        <v>1.546086211205832</v>
       </c>
       <c r="G10">
-        <v>0.0007823571314060096</v>
+        <v>1.201996806240174</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0007405829221402982</v>
       </c>
       <c r="I10">
-        <v>0.1489304842232482</v>
+        <v>0.003402106685942208</v>
       </c>
       <c r="J10">
-        <v>0.2769563398600496</v>
+        <v>0.7335246351749163</v>
       </c>
       <c r="K10">
-        <v>3.33563869110975</v>
+        <v>0.3111094906491463</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1434201070543608</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.320727402397779</v>
       </c>
       <c r="N10">
-        <v>0.6554206469560526</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.283181912337625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8062333458674544</v>
+      </c>
+      <c r="P10">
+        <v>0.8531445156855018</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4162497865168433</v>
+        <v>0.3009089878412397</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3014318242341716</v>
+        <v>0.08983031357015392</v>
       </c>
       <c r="E11">
-        <v>0.2630822824367414</v>
+        <v>0.08009970545045775</v>
       </c>
       <c r="F11">
-        <v>1.137452477881638</v>
+        <v>1.418836020702898</v>
       </c>
       <c r="G11">
-        <v>0.0007792935864475677</v>
+        <v>1.111870588765981</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01932533476480103</v>
       </c>
       <c r="I11">
-        <v>0.1413200622243469</v>
+        <v>0.003594385090591956</v>
       </c>
       <c r="J11">
-        <v>0.2958050174059821</v>
+        <v>0.6833573531916528</v>
       </c>
       <c r="K11">
-        <v>3.578976298617931</v>
+        <v>0.2880883661599913</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1000249241552815</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.401120182795353</v>
       </c>
       <c r="N11">
-        <v>0.6380035592405733</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.385488882118523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7358697042678912</v>
+      </c>
+      <c r="P11">
+        <v>0.8186650265699367</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4267389247397944</v>
+        <v>0.3208488197898163</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3086861805490884</v>
+        <v>0.07471827001150189</v>
       </c>
       <c r="E12">
-        <v>0.2694506793772788</v>
+        <v>0.0596414314755922</v>
       </c>
       <c r="F12">
-        <v>1.158548103137932</v>
+        <v>1.289846743287299</v>
       </c>
       <c r="G12">
-        <v>0.0007781434971357304</v>
+        <v>1.01682153219177</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0578642335954882</v>
       </c>
       <c r="I12">
-        <v>0.1385158748019801</v>
+        <v>0.003523268268227575</v>
       </c>
       <c r="J12">
-        <v>0.3030148789346896</v>
+        <v>0.6339294577607149</v>
       </c>
       <c r="K12">
-        <v>3.671383142036348</v>
+        <v>0.2740240733171291</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07646976730530675</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.350983305263583</v>
       </c>
       <c r="N12">
-        <v>0.6315898877858572</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.425205026586724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.654694316751204</v>
+      </c>
+      <c r="P12">
+        <v>0.8090386699899845</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.424479566019329</v>
+        <v>0.331391394867822</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3071219178167013</v>
+        <v>0.06008552539199741</v>
       </c>
       <c r="E13">
-        <v>0.2680767567387079</v>
+        <v>0.04550353244804128</v>
       </c>
       <c r="F13">
-        <v>1.153986786036384</v>
+        <v>1.1493632083248</v>
       </c>
       <c r="G13">
-        <v>0.0007783907538518858</v>
+        <v>0.9095824190505937</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1133772528735619</v>
       </c>
       <c r="I13">
-        <v>0.1391162936001136</v>
+        <v>0.003641707287042273</v>
       </c>
       <c r="J13">
-        <v>0.3014587641247601</v>
+        <v>0.5806627213431312</v>
       </c>
       <c r="K13">
-        <v>3.651469373560303</v>
+        <v>0.2640560504610896</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06652171865587864</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.203650305279382</v>
       </c>
       <c r="N13">
-        <v>0.6329629613821055</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.416606686303794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.5623382070843945</v>
+      </c>
+      <c r="P13">
+        <v>0.8158967946308096</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4171125861217888</v>
+        <v>0.3336482179298059</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3020277917513994</v>
+        <v>0.05040309905092499</v>
       </c>
       <c r="E14">
-        <v>0.2636051526508254</v>
+        <v>0.0394779093919233</v>
       </c>
       <c r="F14">
-        <v>1.139179971103687</v>
+        <v>1.046840538083231</v>
       </c>
       <c r="G14">
-        <v>0.0007791987707522563</v>
+        <v>0.8295824024005896</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625594646305615</v>
       </c>
       <c r="I14">
-        <v>0.1410877821613399</v>
+        <v>0.003905184008578644</v>
       </c>
       <c r="J14">
-        <v>0.2963966827955886</v>
+        <v>0.5418655354459503</v>
       </c>
       <c r="K14">
-        <v>3.586573189435967</v>
+        <v>0.2588422179530792</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0677208305778354</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.058524985170777</v>
       </c>
       <c r="N14">
-        <v>0.6374722089851375</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.388736314167005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4940041258105268</v>
+      </c>
+      <c r="P14">
+        <v>0.8286601647780287</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.412601045549124</v>
+        <v>0.3308789637545857</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2989129986654717</v>
+        <v>0.04798921056583083</v>
       </c>
       <c r="E15">
-        <v>0.2608730213501147</v>
+        <v>0.03843262459495222</v>
       </c>
       <c r="F15">
-        <v>1.130162445253106</v>
+        <v>1.018564694419624</v>
       </c>
       <c r="G15">
-        <v>0.0007796949900855059</v>
+        <v>0.806775959812839</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1750109129068136</v>
       </c>
       <c r="I15">
-        <v>0.1423056017705315</v>
+        <v>0.004142089844092922</v>
       </c>
       <c r="J15">
-        <v>0.2933056604206286</v>
+        <v>0.531252408782791</v>
       </c>
       <c r="K15">
-        <v>3.546857634866683</v>
+        <v>0.2580357582123938</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06889892899370764</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.004484743717569</v>
       </c>
       <c r="N15">
-        <v>0.6402581879322469</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.371794446901959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.4749391172258299</v>
+      </c>
+      <c r="P15">
+        <v>0.8345266575781665</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3867602832905135</v>
+        <v>0.3085003152216927</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2811443851807098</v>
+        <v>0.04613118359171864</v>
       </c>
       <c r="E16">
-        <v>0.2453171630600508</v>
+        <v>0.03736982224848462</v>
       </c>
       <c r="F16">
-        <v>1.079258064396697</v>
+        <v>0.9909410532450664</v>
       </c>
       <c r="G16">
-        <v>0.0007825587739930947</v>
+        <v>0.779952470833436</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620840766116203</v>
       </c>
       <c r="I16">
-        <v>0.1494385267811866</v>
+        <v>0.004806673221464663</v>
       </c>
       <c r="J16">
-        <v>0.2757342205971156</v>
+        <v>0.5229017794844566</v>
       </c>
       <c r="K16">
-        <v>3.319769969246579</v>
+        <v>0.2642177381060948</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06622982637641783</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2.816700319075352</v>
       </c>
       <c r="N16">
-        <v>0.6565838654241745</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.276627588554049</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.4479980960215499</v>
+      </c>
+      <c r="P16">
+        <v>0.8556051445064057</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3709179037925026</v>
+        <v>0.2900762996132187</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2703126139944629</v>
+        <v>0.04963386916440982</v>
       </c>
       <c r="E17">
-        <v>0.2358597331469667</v>
+        <v>0.03904228169911672</v>
       </c>
       <c r="F17">
-        <v>1.048689909673797</v>
+        <v>1.023430793702872</v>
       </c>
       <c r="G17">
-        <v>0.0007843340652985797</v>
+        <v>0.8013917042536747</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242629272037163</v>
       </c>
       <c r="I17">
-        <v>0.1539490303496258</v>
+        <v>0.00521020529766858</v>
       </c>
       <c r="J17">
-        <v>0.2650751189115823</v>
+        <v>0.5369330154574641</v>
       </c>
       <c r="K17">
-        <v>3.180874916693369</v>
+        <v>0.2716429062212882</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06213095080588538</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>2.749801274492853</v>
       </c>
       <c r="N17">
-        <v>0.666913798773507</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.219890038905362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.4628467297007077</v>
+      </c>
+      <c r="P17">
+        <v>0.8649507036779873</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3618088934370007</v>
+        <v>0.2756780233198839</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2641063295969559</v>
+        <v>0.05893527911948837</v>
       </c>
       <c r="E18">
-        <v>0.2304498137859952</v>
+        <v>0.04679217593165141</v>
       </c>
       <c r="F18">
-        <v>1.031339564865007</v>
+        <v>1.114988691532631</v>
       </c>
       <c r="G18">
-        <v>0.0007853621291499782</v>
+        <v>0.8695246739824114</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07142200482727645</v>
       </c>
       <c r="I18">
-        <v>0.1565917561995631</v>
+        <v>0.005087790950863535</v>
       </c>
       <c r="J18">
-        <v>0.2589861217810778</v>
+        <v>0.5730754901926502</v>
       </c>
       <c r="K18">
-        <v>3.101125254958561</v>
+        <v>0.2821998501210174</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0637919852525175</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.775259536379622</v>
       </c>
       <c r="N18">
-        <v>0.6729682714303848</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.187833712737984</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5169344998397563</v>
+      </c>
+      <c r="P18">
+        <v>0.8679840559042731</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3587252171493418</v>
+        <v>0.2606624359414695</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.262008959416292</v>
+        <v>0.07378187031849137</v>
       </c>
       <c r="E19">
-        <v>0.2286230590592311</v>
+        <v>0.06420347316721298</v>
       </c>
       <c r="F19">
-        <v>1.025503815437347</v>
+        <v>1.248892360427192</v>
       </c>
       <c r="G19">
-        <v>0.000785711426770197</v>
+        <v>0.9701377619512215</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02617498009735186</v>
       </c>
       <c r="I19">
-        <v>0.1574947495444867</v>
+        <v>0.005131386332387855</v>
       </c>
       <c r="J19">
-        <v>0.2569314548679529</v>
+        <v>0.6240596145559749</v>
       </c>
       <c r="K19">
-        <v>3.074146016812847</v>
+        <v>0.2938296833245815</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08106106288251524</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>2.880308010617966</v>
       </c>
       <c r="N19">
-        <v>0.675037367126194</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.177076739116728</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6036787394774166</v>
+      </c>
+      <c r="P19">
+        <v>0.8698699163928589</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3726040172373217</v>
+        <v>0.2536717621477749</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2714631741621361</v>
+        <v>0.1033623388126301</v>
       </c>
       <c r="E20">
-        <v>0.2368633765639387</v>
+        <v>0.1073959744954038</v>
       </c>
       <c r="F20">
-        <v>1.051919726048027</v>
+        <v>1.503561516648134</v>
       </c>
       <c r="G20">
-        <v>0.0007841443657779352</v>
+        <v>1.164895707845318</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0003891795408139664</v>
       </c>
       <c r="I20">
-        <v>0.1534638456947599</v>
+        <v>0.004571989726425585</v>
       </c>
       <c r="J20">
-        <v>0.2662054153026077</v>
+        <v>0.7181667312829632</v>
       </c>
       <c r="K20">
-        <v>3.195645833207038</v>
+        <v>0.3104746710067321</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1397122623003852</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.195114451448092</v>
       </c>
       <c r="N20">
-        <v>0.6658024088451313</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.225869478815127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7779508332104186</v>
+      </c>
+      <c r="P20">
+        <v>0.8660907252736445</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4192762457071098</v>
+        <v>0.2849347090480165</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3035229043203458</v>
+        <v>0.1170670751321552</v>
       </c>
       <c r="E21">
-        <v>0.2649171323167465</v>
+        <v>0.1224608710337165</v>
       </c>
       <c r="F21">
-        <v>1.143518173856918</v>
+        <v>1.643469803247498</v>
       </c>
       <c r="G21">
-        <v>0.0007789611697450827</v>
+        <v>1.281197674203725</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.001516007215950799</v>
       </c>
       <c r="I21">
-        <v>0.1405065706998068</v>
+        <v>0.003577390906023936</v>
       </c>
       <c r="J21">
-        <v>0.2978815135935236</v>
+        <v>0.7667324950203636</v>
       </c>
       <c r="K21">
-        <v>3.605627346847371</v>
+        <v>0.3054325224536285</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1594898201905579</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.622218366685445</v>
       </c>
       <c r="N21">
-        <v>0.6361427299449787</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.396895362809516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.8879565801156133</v>
+      </c>
+      <c r="P21">
+        <v>0.8250087162033655</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4498200040174538</v>
+        <v>0.3091026759993127</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.324718460235033</v>
+        <v>0.1245373752927321</v>
       </c>
       <c r="E22">
-        <v>0.2835540437467543</v>
+        <v>0.1300233360603613</v>
       </c>
       <c r="F22">
-        <v>1.205684033792821</v>
+        <v>1.727856418973559</v>
       </c>
       <c r="G22">
-        <v>0.0007756316940850483</v>
+        <v>1.352888201191064</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.002767892560373131</v>
       </c>
       <c r="I22">
-        <v>0.132492956701479</v>
+        <v>0.002750669526317751</v>
       </c>
       <c r="J22">
-        <v>0.3190089283300495</v>
+        <v>0.7964238823789742</v>
       </c>
       <c r="K22">
-        <v>3.875113282512018</v>
+        <v>0.3027229183223703</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1691118048981721</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3.889335198794242</v>
       </c>
       <c r="N22">
-        <v>0.6178223945876553</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.514395796451765</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.9519452331438885</v>
+      </c>
+      <c r="P22">
+        <v>0.7988891053470635</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4335138357238577</v>
+        <v>0.2993159985699378</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3133822612271615</v>
+        <v>0.1203905020238381</v>
       </c>
       <c r="E23">
-        <v>0.2735776354730888</v>
+        <v>0.1259938904580302</v>
       </c>
       <c r="F23">
-        <v>1.172282335694646</v>
+        <v>1.684979557953099</v>
       </c>
       <c r="G23">
-        <v>0.0007774035871607293</v>
+        <v>1.316782928004869</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002056757496348371</v>
       </c>
       <c r="I23">
-        <v>0.1367271805965942</v>
+        <v>0.00284715075954356</v>
       </c>
       <c r="J23">
-        <v>0.3076912452336842</v>
+        <v>0.7816741347844811</v>
       </c>
       <c r="K23">
-        <v>3.731127412338992</v>
+        <v>0.3055196313703767</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1641015056299935</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.742070493706592</v>
       </c>
       <c r="N23">
-        <v>0.6275000276530989</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.451130276904593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.916863535616578</v>
+      </c>
+      <c r="P23">
+        <v>0.8135576332921461</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3718417286530382</v>
+        <v>0.2566823435786034</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.270942940684975</v>
+        <v>0.1050583829893625</v>
       </c>
       <c r="E24">
-        <v>0.2364095447968211</v>
+        <v>0.1108349994796711</v>
       </c>
       <c r="F24">
-        <v>1.050458831877492</v>
+        <v>1.522108785090055</v>
       </c>
       <c r="G24">
-        <v>0.0007842301057877747</v>
+        <v>1.179509878359383</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0003010568905141842</v>
       </c>
       <c r="I24">
-        <v>0.1536830435127019</v>
+        <v>0.004028114331547705</v>
       </c>
       <c r="J24">
-        <v>0.2656942872020238</v>
+        <v>0.7256107909306593</v>
       </c>
       <c r="K24">
-        <v>3.188967584406612</v>
+        <v>0.3142012022833995</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.14505609682071</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.196039033192108</v>
       </c>
       <c r="N24">
-        <v>0.6663045086167969</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.223164427166211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7863036745626815</v>
+      </c>
+      <c r="P24">
+        <v>0.8692107422510942</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3054303710740811</v>
+        <v>0.2097535977875111</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2260625132734759</v>
+        <v>0.08871960983443472</v>
       </c>
       <c r="E25">
-        <v>0.1974363489479671</v>
+        <v>0.09467131415853558</v>
       </c>
       <c r="F25">
-        <v>0.9277905188652369</v>
+        <v>1.352568560821155</v>
       </c>
       <c r="G25">
-        <v>0.0007918618528908739</v>
+        <v>1.03743793503854</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0001949484066627871</v>
       </c>
       <c r="I25">
-        <v>0.1738109834651471</v>
+        <v>0.005902949547309966</v>
       </c>
       <c r="J25">
-        <v>0.2219671213158705</v>
+        <v>0.6683926692725493</v>
       </c>
       <c r="K25">
-        <v>2.609330805379273</v>
+        <v>0.3242358023885377</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1247235245882337</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.614503810206656</v>
       </c>
       <c r="N25">
-        <v>0.712451076228767</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.999061113757705</v>
+        <v>0.6469217396186338</v>
+      </c>
+      <c r="P25">
+        <v>0.9319708948641088</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1818193872554588</v>
+        <v>0.1641599514873633</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0764388591059344</v>
+        <v>0.07757871528146154</v>
       </c>
       <c r="E2">
-        <v>0.08289077842942305</v>
+        <v>0.08261469674493327</v>
       </c>
       <c r="F2">
-        <v>1.237763486733243</v>
+        <v>1.218606378302624</v>
       </c>
       <c r="G2">
-        <v>0.9427093576550334</v>
+        <v>0.9041726808756891</v>
       </c>
       <c r="H2">
-        <v>0.001444520222503076</v>
+        <v>0.001366594236249741</v>
       </c>
       <c r="I2">
-        <v>0.006936516805150283</v>
+        <v>0.004060099218327728</v>
       </c>
       <c r="J2">
-        <v>0.6315389775741806</v>
+        <v>0.6547337496717773</v>
       </c>
       <c r="K2">
-        <v>0.3356367880750337</v>
+        <v>0.2923678839590167</v>
       </c>
       <c r="L2">
-        <v>0.1101489939265932</v>
+        <v>0.1386127599976721</v>
       </c>
       <c r="M2">
-        <v>2.18025682703805</v>
+        <v>0.0850202856897857</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1087561185703052</v>
       </c>
       <c r="O2">
-        <v>0.5430683869287876</v>
+        <v>2.208543853067567</v>
       </c>
       <c r="P2">
-        <v>0.9827448344829959</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5508650924854877</v>
+      </c>
+      <c r="R2">
+        <v>0.93976160336869</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.158109299728153</v>
+        <v>0.1469867790221429</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.06837760943019333</v>
+        <v>0.06937051276113237</v>
       </c>
       <c r="E3">
-        <v>0.07491135122987913</v>
+        <v>0.07483972686355145</v>
       </c>
       <c r="F3">
-        <v>1.158988224668107</v>
+        <v>1.143426874640141</v>
       </c>
       <c r="G3">
-        <v>0.8774659162530725</v>
+        <v>0.8449002090326445</v>
       </c>
       <c r="H3">
-        <v>0.003027414131775541</v>
+        <v>0.002858405214715032</v>
       </c>
       <c r="I3">
-        <v>0.00832475456996562</v>
+        <v>0.004903535697412309</v>
       </c>
       <c r="J3">
-        <v>0.6061846924429659</v>
+        <v>0.6260786524016027</v>
       </c>
       <c r="K3">
-        <v>0.3416996157155783</v>
+        <v>0.299023170951644</v>
       </c>
       <c r="L3">
-        <v>0.1000898351871911</v>
+        <v>0.1436898931475454</v>
       </c>
       <c r="M3">
-        <v>1.894332670816198</v>
+        <v>0.08666817821945649</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09917230678742328</v>
       </c>
       <c r="O3">
-        <v>0.4743194491321958</v>
+        <v>1.914451054914139</v>
       </c>
       <c r="P3">
-        <v>1.017144487433709</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4803878358863969</v>
+      </c>
+      <c r="R3">
+        <v>0.9725452408223836</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1431945695362344</v>
+        <v>0.1360081124352774</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0634509298685586</v>
+        <v>0.06435876006770513</v>
       </c>
       <c r="E4">
-        <v>0.07001247642729425</v>
+        <v>0.07006373865213433</v>
       </c>
       <c r="F4">
-        <v>1.111521691174417</v>
+        <v>1.098018340417852</v>
       </c>
       <c r="G4">
-        <v>0.8382662238659151</v>
+        <v>0.8094559840517377</v>
       </c>
       <c r="H4">
-        <v>0.004332760894829146</v>
+        <v>0.004088263425917948</v>
       </c>
       <c r="I4">
-        <v>0.009308772455245418</v>
+        <v>0.005524345793570085</v>
       </c>
       <c r="J4">
-        <v>0.591141618938579</v>
+        <v>0.6086575509457219</v>
       </c>
       <c r="K4">
-        <v>0.3455088848289911</v>
+        <v>0.3031538350569711</v>
       </c>
       <c r="L4">
-        <v>0.093894517366504</v>
+        <v>0.1469967231985247</v>
       </c>
       <c r="M4">
-        <v>1.719782586053412</v>
+        <v>0.08802640790631155</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09326108538628475</v>
       </c>
       <c r="O4">
-        <v>0.4322948288649826</v>
+        <v>1.734973729678842</v>
       </c>
       <c r="P4">
-        <v>1.038822737795761</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4373228214254112</v>
+      </c>
+      <c r="R4">
+        <v>0.9932394135623506</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.13626918014414</v>
+        <v>0.1307516508828286</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.06148584151713266</v>
+        <v>0.06235790311110634</v>
       </c>
       <c r="E5">
-        <v>0.06801153907397151</v>
+        <v>0.06811271520220075</v>
       </c>
       <c r="F5">
-        <v>1.091794904384415</v>
+        <v>1.079140252101723</v>
       </c>
       <c r="G5">
-        <v>0.8218998413661467</v>
+        <v>0.7946913766592303</v>
       </c>
       <c r="H5">
-        <v>0.004945304977103993</v>
+        <v>0.004665274708620104</v>
       </c>
       <c r="I5">
-        <v>0.009828112581513171</v>
+        <v>0.005897416779427012</v>
       </c>
       <c r="J5">
-        <v>0.5848305246474439</v>
+        <v>0.6013104733715977</v>
       </c>
       <c r="K5">
-        <v>0.3467080499689175</v>
+        <v>0.3045259685288197</v>
       </c>
       <c r="L5">
-        <v>0.09133027639478897</v>
+        <v>0.1482017607067725</v>
       </c>
       <c r="M5">
-        <v>1.649977325323306</v>
+        <v>0.08861421141007275</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09081354946705034</v>
       </c>
       <c r="O5">
-        <v>0.4154283506872432</v>
+        <v>1.66311106459051</v>
       </c>
       <c r="P5">
-        <v>1.047506651948324</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4200228770882646</v>
+      </c>
+      <c r="R5">
+        <v>1.001570824456279</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1341864508180777</v>
+        <v>0.129049372513748</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06120618717697823</v>
+        <v>0.06206934112528018</v>
       </c>
       <c r="E6">
-        <v>0.06767506649015154</v>
+        <v>0.06778495068603263</v>
       </c>
       <c r="F6">
-        <v>1.087804973518686</v>
+        <v>1.075345851642837</v>
       </c>
       <c r="G6">
-        <v>0.8184700951823345</v>
+        <v>0.7915911466908483</v>
       </c>
       <c r="H6">
-        <v>0.005052843596551004</v>
+        <v>0.004766473757766398</v>
       </c>
       <c r="I6">
-        <v>0.0100289402526812</v>
+        <v>0.006085754270005239</v>
       </c>
       <c r="J6">
-        <v>0.583416523181711</v>
+        <v>0.5997413623384631</v>
       </c>
       <c r="K6">
-        <v>0.3464525298760943</v>
+        <v>0.3043631536334832</v>
       </c>
       <c r="L6">
-        <v>0.09086378304813181</v>
+        <v>0.1481743213241167</v>
       </c>
       <c r="M6">
-        <v>1.639752740868516</v>
+        <v>0.0886518944526129</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09036963102233742</v>
       </c>
       <c r="O6">
-        <v>0.4128976433172866</v>
+        <v>1.652455148569459</v>
       </c>
       <c r="P6">
-        <v>1.048609217583275</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4174019944769967</v>
+      </c>
+      <c r="R6">
+        <v>1.002671924075358</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1405548442589009</v>
+        <v>0.1339427689201216</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.06355128021872503</v>
+        <v>0.06466743765780336</v>
       </c>
       <c r="E7">
-        <v>0.06997431526996323</v>
+        <v>0.07009648426859272</v>
       </c>
       <c r="F7">
-        <v>1.109272035236543</v>
+        <v>1.093796274871394</v>
       </c>
       <c r="G7">
-        <v>0.836069258301805</v>
+        <v>0.8110890505066237</v>
       </c>
       <c r="H7">
-        <v>0.004343477808350316</v>
+        <v>0.004105705356856282</v>
       </c>
       <c r="I7">
-        <v>0.009607058631424081</v>
+        <v>0.005855373925063745</v>
       </c>
       <c r="J7">
-        <v>0.590037937301318</v>
+        <v>0.6002773087739257</v>
       </c>
       <c r="K7">
-        <v>0.3442825742828024</v>
+        <v>0.3019097753769788</v>
       </c>
       <c r="L7">
-        <v>0.09374993744924609</v>
+        <v>0.1462959032103228</v>
       </c>
       <c r="M7">
-        <v>1.722545466410168</v>
+        <v>0.0877972722692828</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09311085388359785</v>
       </c>
       <c r="O7">
-        <v>0.4327996900492082</v>
+        <v>1.734153113609523</v>
       </c>
       <c r="P7">
-        <v>1.038008004112746</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4373034996000413</v>
+      </c>
+      <c r="R7">
+        <v>0.9923432031604023</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1703116792787398</v>
+        <v>0.156207089358233</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.07382267214985916</v>
+        <v>0.07563201159169353</v>
       </c>
       <c r="E8">
-        <v>0.08012382896101045</v>
+        <v>0.0801542035942191</v>
       </c>
       <c r="F8">
-        <v>1.207787836215232</v>
+        <v>1.182995947332188</v>
       </c>
       <c r="G8">
-        <v>0.9174165148396582</v>
+        <v>0.8933554620886213</v>
       </c>
       <c r="H8">
-        <v>0.001920804809813603</v>
+        <v>0.001831138431806822</v>
       </c>
       <c r="I8">
-        <v>0.007739042354312886</v>
+        <v>0.004730703748658804</v>
       </c>
       <c r="J8">
-        <v>0.6213433228456751</v>
+        <v>0.6194015359214973</v>
       </c>
       <c r="K8">
-        <v>0.3360881298563232</v>
+        <v>0.2926642830062995</v>
       </c>
       <c r="L8">
-        <v>0.1065372293445321</v>
+        <v>0.1393214631855528</v>
       </c>
       <c r="M8">
-        <v>2.086372918646617</v>
+        <v>0.08501706324591662</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1052707782385625</v>
       </c>
       <c r="O8">
-        <v>0.5202958885602769</v>
+        <v>2.100374861245228</v>
       </c>
       <c r="P8">
-        <v>0.9933414717220597</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5258520831696814</v>
+      </c>
+      <c r="R8">
+        <v>0.9493742819201625</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2303495842810577</v>
+        <v>0.1994304272876946</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09397059207324077</v>
+        <v>0.09639800963905998</v>
       </c>
       <c r="E9">
-        <v>0.1001173697078031</v>
+        <v>0.09968600673099459</v>
       </c>
       <c r="F9">
-        <v>1.412475662487694</v>
+        <v>1.375627762445802</v>
       </c>
       <c r="G9">
-        <v>1.088101566972043</v>
+        <v>1.053050972784476</v>
       </c>
       <c r="H9">
-        <v>1.041472366525298E-05</v>
+        <v>1.212377539383525E-05</v>
       </c>
       <c r="I9">
-        <v>0.004720257914117454</v>
+        <v>0.00286486868810254</v>
       </c>
       <c r="J9">
-        <v>0.6890726914012077</v>
+        <v>0.6863256279749947</v>
       </c>
       <c r="K9">
-        <v>0.3229028909676366</v>
+        <v>0.2774385644888966</v>
       </c>
       <c r="L9">
-        <v>0.1317533142047864</v>
+        <v>0.128456069246786</v>
       </c>
       <c r="M9">
-        <v>2.802804186246192</v>
+        <v>0.08291266874701719</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1292263211958797</v>
       </c>
       <c r="O9">
-        <v>0.6923753550442768</v>
+        <v>2.834488499036098</v>
       </c>
       <c r="P9">
-        <v>0.9118480143504728</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7019245535174221</v>
+      </c>
+      <c r="R9">
+        <v>0.871794016363284</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.272740289256177</v>
+        <v>0.2313913492685629</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1063392156932537</v>
+        <v>0.1104728249448144</v>
       </c>
       <c r="E10">
-        <v>0.1103136231319937</v>
+        <v>0.1099388129514658</v>
       </c>
       <c r="F10">
-        <v>1.546086211205832</v>
+        <v>1.487965290341691</v>
       </c>
       <c r="G10">
-        <v>1.201996806240174</v>
+        <v>1.182352449842142</v>
       </c>
       <c r="H10">
-        <v>0.0007405829221402982</v>
+        <v>0.0006753651510651437</v>
       </c>
       <c r="I10">
-        <v>0.003402106685942208</v>
+        <v>0.002248590406614071</v>
       </c>
       <c r="J10">
-        <v>0.7335246351749163</v>
+        <v>0.6872733502209485</v>
       </c>
       <c r="K10">
-        <v>0.3111094906491463</v>
+        <v>0.2637146723506376</v>
       </c>
       <c r="L10">
-        <v>0.1434201070543608</v>
+        <v>0.1204681773909542</v>
       </c>
       <c r="M10">
-        <v>3.320727402397779</v>
+        <v>0.08184138681437503</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1399498196136335</v>
       </c>
       <c r="O10">
-        <v>0.8062333458674544</v>
+        <v>3.344077559876723</v>
       </c>
       <c r="P10">
-        <v>0.8531445156855018</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8155990354770637</v>
+      </c>
+      <c r="R10">
+        <v>0.8163881081670192</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3009089878412397</v>
+        <v>0.2630574895323292</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08983031357015392</v>
+        <v>0.09584739151063815</v>
       </c>
       <c r="E11">
-        <v>0.08009970545045775</v>
+        <v>0.08012339501741295</v>
       </c>
       <c r="F11">
-        <v>1.418836020702898</v>
+        <v>1.339826556593493</v>
       </c>
       <c r="G11">
-        <v>1.111870588765981</v>
+        <v>1.141534130306241</v>
       </c>
       <c r="H11">
-        <v>0.01932533476480103</v>
+        <v>0.01922445982006238</v>
       </c>
       <c r="I11">
-        <v>0.003594385090591956</v>
+        <v>0.002724559883449551</v>
       </c>
       <c r="J11">
-        <v>0.6833573531916528</v>
+        <v>0.5620196657499292</v>
       </c>
       <c r="K11">
-        <v>0.2880883661599913</v>
+        <v>0.2441143547117779</v>
       </c>
       <c r="L11">
-        <v>0.1000249241552815</v>
+        <v>0.1128810234547544</v>
       </c>
       <c r="M11">
-        <v>3.401120182795353</v>
+        <v>0.07568643650397355</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09695683437046299</v>
       </c>
       <c r="O11">
-        <v>0.7358697042678912</v>
+        <v>3.376229631774891</v>
       </c>
       <c r="P11">
-        <v>0.8186650265699367</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7381843347101267</v>
+      </c>
+      <c r="R11">
+        <v>0.792163623317693</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3208488197898163</v>
+        <v>0.2871125794750071</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07471827001150189</v>
+        <v>0.08087875203535333</v>
       </c>
       <c r="E12">
-        <v>0.0596414314755922</v>
+        <v>0.0594889019054623</v>
       </c>
       <c r="F12">
-        <v>1.289846743287299</v>
+        <v>1.206472698529495</v>
       </c>
       <c r="G12">
-        <v>1.01682153219177</v>
+        <v>1.068663622007634</v>
       </c>
       <c r="H12">
-        <v>0.0578642335954882</v>
+        <v>0.05776647120891454</v>
       </c>
       <c r="I12">
-        <v>0.003523268268227575</v>
+        <v>0.002689650095581086</v>
       </c>
       <c r="J12">
-        <v>0.6339294577607149</v>
+        <v>0.4887592748281264</v>
       </c>
       <c r="K12">
-        <v>0.2740240733171291</v>
+        <v>0.2334467705697669</v>
       </c>
       <c r="L12">
-        <v>0.07646976730530675</v>
+        <v>0.1093278897345531</v>
       </c>
       <c r="M12">
-        <v>3.350983305263583</v>
+        <v>0.07163969560568262</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07386829464087263</v>
       </c>
       <c r="O12">
-        <v>0.654694316751204</v>
+        <v>3.300541485680299</v>
       </c>
       <c r="P12">
-        <v>0.8090386699899845</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6533819287639346</v>
+      </c>
+      <c r="R12">
+        <v>0.7908468722619055</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.331391394867822</v>
+        <v>0.3023140097674855</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.06008552539199741</v>
+        <v>0.06492157697290679</v>
       </c>
       <c r="E13">
-        <v>0.04550353244804128</v>
+        <v>0.0449011743995591</v>
       </c>
       <c r="F13">
-        <v>1.1493632083248</v>
+        <v>1.077368131615472</v>
       </c>
       <c r="G13">
-        <v>0.9095824190505937</v>
+        <v>0.9566078114348642</v>
       </c>
       <c r="H13">
-        <v>0.1133772528735619</v>
+        <v>0.1133142620853391</v>
       </c>
       <c r="I13">
-        <v>0.003641707287042273</v>
+        <v>0.002724623236483481</v>
       </c>
       <c r="J13">
-        <v>0.5806627213431312</v>
+        <v>0.4550962931639759</v>
       </c>
       <c r="K13">
-        <v>0.2640560504610896</v>
+        <v>0.2274145256356102</v>
       </c>
       <c r="L13">
-        <v>0.06652171865587864</v>
+        <v>0.1076354474033367</v>
       </c>
       <c r="M13">
-        <v>3.203650305279382</v>
+        <v>0.06864205709214133</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06449557654714599</v>
       </c>
       <c r="O13">
-        <v>0.5623382070843945</v>
+        <v>3.151601911013756</v>
       </c>
       <c r="P13">
-        <v>0.8158967946308096</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.5604826060158459</v>
+      </c>
+      <c r="R13">
+        <v>0.8031659704525573</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3336482179298059</v>
+        <v>0.3081941877453858</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05040309905092499</v>
+        <v>0.05390142485763505</v>
       </c>
       <c r="E14">
-        <v>0.0394779093919233</v>
+        <v>0.03859607841456514</v>
       </c>
       <c r="F14">
-        <v>1.046840538083231</v>
+        <v>0.9885615444770366</v>
       </c>
       <c r="G14">
-        <v>0.8295824024005896</v>
+        <v>0.8630442016411024</v>
       </c>
       <c r="H14">
-        <v>0.1625594646305615</v>
+        <v>0.162526081506158</v>
       </c>
       <c r="I14">
-        <v>0.003905184008578644</v>
+        <v>0.002886763772202983</v>
       </c>
       <c r="J14">
-        <v>0.5418655354459503</v>
+        <v>0.4459439894071977</v>
       </c>
       <c r="K14">
-        <v>0.2588422179530792</v>
+        <v>0.2250081894142886</v>
       </c>
       <c r="L14">
-        <v>0.0677208305778354</v>
+        <v>0.107079943858541</v>
       </c>
       <c r="M14">
-        <v>3.058524985170777</v>
+        <v>0.06702521723960064</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.0661268264294872</v>
       </c>
       <c r="O14">
-        <v>0.4940041258105268</v>
+        <v>3.015216199283742</v>
       </c>
       <c r="P14">
-        <v>0.8286601647780287</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4928750064574743</v>
+      </c>
+      <c r="R14">
+        <v>0.8175722652193578</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3308789637545857</v>
+        <v>0.306533038480211</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04798921056583083</v>
+        <v>0.05099783052642692</v>
       </c>
       <c r="E15">
-        <v>0.03843262459495222</v>
+        <v>0.03751281418944385</v>
       </c>
       <c r="F15">
-        <v>1.018564694419624</v>
+        <v>0.9661104691987674</v>
       </c>
       <c r="G15">
-        <v>0.806775959812839</v>
+        <v>0.8328662339142738</v>
       </c>
       <c r="H15">
-        <v>0.1750109129068136</v>
+        <v>0.1749882862160348</v>
       </c>
       <c r="I15">
-        <v>0.004142089844092922</v>
+        <v>0.003090850482807106</v>
       </c>
       <c r="J15">
-        <v>0.531252408782791</v>
+        <v>0.4494122996890155</v>
       </c>
       <c r="K15">
-        <v>0.2580357582123938</v>
+        <v>0.2249991348930198</v>
       </c>
       <c r="L15">
-        <v>0.06889892899370764</v>
+        <v>0.1071424311436078</v>
       </c>
       <c r="M15">
-        <v>3.004484743717569</v>
+        <v>0.066753262772977</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06744413234691393</v>
       </c>
       <c r="O15">
-        <v>0.4749391172258299</v>
+        <v>2.967340782004811</v>
       </c>
       <c r="P15">
-        <v>0.8345266575781665</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.4744024384027128</v>
+      </c>
+      <c r="R15">
+        <v>0.8230219646100103</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3085003152216927</v>
+        <v>0.2853930896662291</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04613118359171864</v>
+        <v>0.04763465449549642</v>
       </c>
       <c r="E16">
-        <v>0.03736982224848462</v>
+        <v>0.03660561859099576</v>
       </c>
       <c r="F16">
-        <v>0.9909410532450664</v>
+        <v>0.9595974138876642</v>
       </c>
       <c r="G16">
-        <v>0.779952470833436</v>
+        <v>0.7722273144895979</v>
       </c>
       <c r="H16">
-        <v>0.1620840766116203</v>
+        <v>0.1620901771498211</v>
       </c>
       <c r="I16">
-        <v>0.004806673221464663</v>
+        <v>0.003502829506393468</v>
       </c>
       <c r="J16">
-        <v>0.5229017794844566</v>
+        <v>0.5011353049769554</v>
       </c>
       <c r="K16">
-        <v>0.2642177381060948</v>
+        <v>0.2317755486987041</v>
       </c>
       <c r="L16">
-        <v>0.06622982637641783</v>
+        <v>0.1095676124384273</v>
       </c>
       <c r="M16">
-        <v>2.816700319075352</v>
+        <v>0.06845845012173246</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06513779081473992</v>
       </c>
       <c r="O16">
-        <v>0.4479980960215499</v>
+        <v>2.813278188132728</v>
       </c>
       <c r="P16">
-        <v>0.8556051445064057</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4510168678250963</v>
+      </c>
+      <c r="R16">
+        <v>0.8377641541957637</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2900762996132187</v>
+        <v>0.2664878391574632</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04963386916440982</v>
+        <v>0.05067346299086495</v>
       </c>
       <c r="E17">
-        <v>0.03904228169911672</v>
+        <v>0.03837897059859463</v>
       </c>
       <c r="F17">
-        <v>1.023430793702872</v>
+        <v>0.9995012980623272</v>
       </c>
       <c r="G17">
-        <v>0.8013917042536747</v>
+        <v>0.7786535574805384</v>
       </c>
       <c r="H17">
-        <v>0.1242629272037163</v>
+        <v>0.1242705439026395</v>
       </c>
       <c r="I17">
-        <v>0.00521020529766858</v>
+        <v>0.003766405144244978</v>
       </c>
       <c r="J17">
-        <v>0.5369330154574641</v>
+        <v>0.5410159015927576</v>
       </c>
       <c r="K17">
-        <v>0.2716429062212882</v>
+        <v>0.238289738963271</v>
       </c>
       <c r="L17">
-        <v>0.06213095080588538</v>
+        <v>0.1120022357245092</v>
       </c>
       <c r="M17">
-        <v>2.749801274492853</v>
+        <v>0.07047367124284509</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06107269787559932</v>
       </c>
       <c r="O17">
-        <v>0.4628467297007077</v>
+        <v>2.762664905818497</v>
       </c>
       <c r="P17">
-        <v>0.8649507036779873</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.4678262550583625</v>
+      </c>
+      <c r="R17">
+        <v>0.842986632680347</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2756780233198839</v>
+        <v>0.2492885746823106</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05893527911948837</v>
+        <v>0.05998598531540722</v>
       </c>
       <c r="E18">
-        <v>0.04679217593165141</v>
+        <v>0.04614642343838682</v>
       </c>
       <c r="F18">
-        <v>1.114988691532631</v>
+        <v>1.091490588451478</v>
       </c>
       <c r="G18">
-        <v>0.8695246739824114</v>
+        <v>0.8377413258639166</v>
       </c>
       <c r="H18">
-        <v>0.07142200482727645</v>
+        <v>0.07142748313949454</v>
       </c>
       <c r="I18">
-        <v>0.005087790950863535</v>
+        <v>0.003551865825788703</v>
       </c>
       <c r="J18">
-        <v>0.5730754901926502</v>
+        <v>0.5874353110144881</v>
       </c>
       <c r="K18">
-        <v>0.2821998501210174</v>
+        <v>0.2464860079604732</v>
       </c>
       <c r="L18">
-        <v>0.0637919852525175</v>
+        <v>0.115148693460756</v>
       </c>
       <c r="M18">
-        <v>2.775259536379622</v>
+        <v>0.07330644416070253</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06248575732398809</v>
       </c>
       <c r="O18">
-        <v>0.5169344998397563</v>
+        <v>2.799289500039919</v>
       </c>
       <c r="P18">
-        <v>0.8679840559042731</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5237527291510915</v>
+      </c>
+      <c r="R18">
+        <v>0.842257806994116</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2606624359414695</v>
+        <v>0.2304454248045147</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07378187031849137</v>
+        <v>0.0751464858787898</v>
       </c>
       <c r="E19">
-        <v>0.06420347316721298</v>
+        <v>0.06351903152653371</v>
       </c>
       <c r="F19">
-        <v>1.248892360427192</v>
+        <v>1.221669469964155</v>
       </c>
       <c r="G19">
-        <v>0.9701377619512215</v>
+        <v>0.9319134598033258</v>
       </c>
       <c r="H19">
-        <v>0.02617498009735186</v>
+        <v>0.02617788816604616</v>
       </c>
       <c r="I19">
-        <v>0.005131386332387855</v>
+        <v>0.003652881189218249</v>
       </c>
       <c r="J19">
-        <v>0.6240596145559749</v>
+        <v>0.6401898775055344</v>
       </c>
       <c r="K19">
-        <v>0.2938296833245815</v>
+        <v>0.2549058353455234</v>
       </c>
       <c r="L19">
-        <v>0.08106106288251524</v>
+        <v>0.1183844647809016</v>
       </c>
       <c r="M19">
-        <v>2.880308010617966</v>
+        <v>0.07638043074249357</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07923787602263488</v>
       </c>
       <c r="O19">
-        <v>0.6036787394774166</v>
+        <v>2.91327840230727</v>
       </c>
       <c r="P19">
-        <v>0.8698699163928589</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6124578502591405</v>
+      </c>
+      <c r="R19">
+        <v>0.8401464047010538</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2536717621477749</v>
+        <v>0.2154683079048567</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1033623388126301</v>
+        <v>0.1062079430188234</v>
       </c>
       <c r="E20">
-        <v>0.1073959744954038</v>
+        <v>0.106755737693824</v>
       </c>
       <c r="F20">
-        <v>1.503561516648134</v>
+        <v>1.459389108101831</v>
       </c>
       <c r="G20">
-        <v>1.164895707845318</v>
+        <v>1.128149227054479</v>
       </c>
       <c r="H20">
-        <v>0.0003891795408139664</v>
+        <v>0.0003590529117443175</v>
       </c>
       <c r="I20">
-        <v>0.004571989726425585</v>
+        <v>0.003377703089284978</v>
       </c>
       <c r="J20">
-        <v>0.7181667312829632</v>
+        <v>0.7091759441651817</v>
       </c>
       <c r="K20">
-        <v>0.3104746710067321</v>
+        <v>0.2650716034915064</v>
       </c>
       <c r="L20">
-        <v>0.1397122623003852</v>
+        <v>0.1216588693039622</v>
       </c>
       <c r="M20">
-        <v>3.195114451448092</v>
+        <v>0.08117069691953915</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1365796761474201</v>
       </c>
       <c r="O20">
-        <v>0.7779508332104186</v>
+        <v>3.232284734668895</v>
       </c>
       <c r="P20">
-        <v>0.8660907252736445</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7889485647199876</v>
+      </c>
+      <c r="R20">
+        <v>0.8296495094829301</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2849347090480165</v>
+        <v>0.242348485803717</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1170670751321552</v>
+        <v>0.1258788865653599</v>
       </c>
       <c r="E21">
-        <v>0.1224608710337165</v>
+        <v>0.1233094417426166</v>
       </c>
       <c r="F21">
-        <v>1.643469803247498</v>
+        <v>1.540017156614354</v>
       </c>
       <c r="G21">
-        <v>1.281197674203725</v>
+        <v>1.329515633316788</v>
       </c>
       <c r="H21">
-        <v>0.001516007215950799</v>
+        <v>0.001311053106900717</v>
       </c>
       <c r="I21">
-        <v>0.003577390906023936</v>
+        <v>0.002878014977349963</v>
       </c>
       <c r="J21">
-        <v>0.7667324950203636</v>
+        <v>0.5964535003533626</v>
       </c>
       <c r="K21">
-        <v>0.3054325224536285</v>
+        <v>0.254319302387815</v>
       </c>
       <c r="L21">
-        <v>0.1594898201905579</v>
+        <v>0.1160219131387379</v>
       </c>
       <c r="M21">
-        <v>3.622218366685445</v>
+        <v>0.08044031443048105</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1551760544550405</v>
       </c>
       <c r="O21">
-        <v>0.8879565801156133</v>
+        <v>3.5884179867802</v>
       </c>
       <c r="P21">
-        <v>0.8250087162033655</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8898488759351366</v>
+      </c>
+      <c r="R21">
+        <v>0.7880673864606407</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3091026759993127</v>
+        <v>0.2638614624906523</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1245373752927321</v>
+        <v>0.1377976871710871</v>
       </c>
       <c r="E22">
-        <v>0.1300233360603613</v>
+        <v>0.1320342810348976</v>
       </c>
       <c r="F22">
-        <v>1.727856418973559</v>
+        <v>1.581838805117314</v>
       </c>
       <c r="G22">
-        <v>1.352888201191064</v>
+        <v>1.467053024240215</v>
       </c>
       <c r="H22">
-        <v>0.002767892560373131</v>
+        <v>0.002375036771250949</v>
       </c>
       <c r="I22">
-        <v>0.002750669526317751</v>
+        <v>0.002265317012917656</v>
       </c>
       <c r="J22">
-        <v>0.7964238823789742</v>
+        <v>0.5205582868472476</v>
       </c>
       <c r="K22">
-        <v>0.3027229183223703</v>
+        <v>0.2475669938304979</v>
       </c>
       <c r="L22">
-        <v>0.1691118048981721</v>
+        <v>0.1127012821631945</v>
       </c>
       <c r="M22">
-        <v>3.889335198794242</v>
+        <v>0.08023470381145792</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1640657891378723</v>
       </c>
       <c r="O22">
-        <v>0.9519452331438885</v>
+        <v>3.802366888701329</v>
       </c>
       <c r="P22">
-        <v>0.7988891053470635</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.9468294318624331</v>
+      </c>
+      <c r="R22">
+        <v>0.762093202229468</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2993159985699378</v>
+        <v>0.254330956906955</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1203905020238381</v>
+        <v>0.1306098118833319</v>
       </c>
       <c r="E23">
-        <v>0.1259938904580302</v>
+        <v>0.1271654517897964</v>
       </c>
       <c r="F23">
-        <v>1.684979557953099</v>
+        <v>1.567227429590133</v>
       </c>
       <c r="G23">
-        <v>1.316782928004869</v>
+        <v>1.384534684341332</v>
       </c>
       <c r="H23">
-        <v>0.002056757496348371</v>
+        <v>0.001779949546056647</v>
       </c>
       <c r="I23">
-        <v>0.00284715075954356</v>
+        <v>0.002193573237306623</v>
       </c>
       <c r="J23">
-        <v>0.7816741347844811</v>
+        <v>0.5768269335243303</v>
       </c>
       <c r="K23">
-        <v>0.3055196313703767</v>
+        <v>0.2525633682011463</v>
       </c>
       <c r="L23">
-        <v>0.1641015056299935</v>
+        <v>0.1148719804921239</v>
       </c>
       <c r="M23">
-        <v>3.742070493706592</v>
+        <v>0.08096050112053454</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1594627289724144</v>
       </c>
       <c r="O23">
-        <v>0.916863535616578</v>
+        <v>3.693211695182072</v>
       </c>
       <c r="P23">
-        <v>0.8135576332921461</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9168990092940632</v>
+      </c>
+      <c r="R23">
+        <v>0.7763883869033901</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2566823435786034</v>
+        <v>0.2174296291883593</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1050583829893625</v>
+        <v>0.1079312117141527</v>
       </c>
       <c r="E24">
-        <v>0.1108349994796711</v>
+        <v>0.110180728263753</v>
       </c>
       <c r="F24">
-        <v>1.522108785090055</v>
+        <v>1.477463875616451</v>
       </c>
       <c r="G24">
-        <v>1.179509878359383</v>
+        <v>1.141223577687086</v>
       </c>
       <c r="H24">
-        <v>0.0003010568905141842</v>
+        <v>0.0002691848744520442</v>
       </c>
       <c r="I24">
-        <v>0.004028114331547705</v>
+        <v>0.002747194905025729</v>
       </c>
       <c r="J24">
-        <v>0.7256107909306593</v>
+        <v>0.7175606911703483</v>
       </c>
       <c r="K24">
-        <v>0.3142012022833995</v>
+        <v>0.2678977206058466</v>
       </c>
       <c r="L24">
-        <v>0.14505609682071</v>
+        <v>0.1227193744612158</v>
       </c>
       <c r="M24">
-        <v>3.196039033192108</v>
+        <v>0.08222834707756554</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1418301849609449</v>
       </c>
       <c r="O24">
-        <v>0.7863036745626815</v>
+        <v>3.235043330624251</v>
       </c>
       <c r="P24">
-        <v>0.8692107422510942</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.7976808584009518</v>
+      </c>
+      <c r="R24">
+        <v>0.8316478656021276</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2097535977875111</v>
+        <v>0.1837687823785785</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.08871960983443472</v>
+        <v>0.09064333206010389</v>
       </c>
       <c r="E25">
-        <v>0.09467131415853558</v>
+        <v>0.09426877857552896</v>
       </c>
       <c r="F25">
-        <v>1.352568560821155</v>
+        <v>1.322502060364755</v>
       </c>
       <c r="G25">
-        <v>1.03743793503854</v>
+        <v>1.000273032582726</v>
       </c>
       <c r="H25">
-        <v>0.0001949484066627871</v>
+        <v>0.0001902954200887486</v>
       </c>
       <c r="I25">
-        <v>0.005902949547309966</v>
+        <v>0.003828357381736147</v>
       </c>
       <c r="J25">
-        <v>0.6683926692725493</v>
+        <v>0.6766825002576269</v>
       </c>
       <c r="K25">
-        <v>0.3242358023885377</v>
+        <v>0.2800668366162196</v>
       </c>
       <c r="L25">
-        <v>0.1247235245882337</v>
+        <v>0.1306101843429026</v>
       </c>
       <c r="M25">
-        <v>2.614503810206656</v>
+        <v>0.08271840489957594</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1225857401213659</v>
       </c>
       <c r="O25">
-        <v>0.6469217396186338</v>
+        <v>2.645773681410816</v>
       </c>
       <c r="P25">
-        <v>0.9319708948641088</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.6559744040191759</v>
+      </c>
+      <c r="R25">
+        <v>0.8914914634295867</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
